--- a/excell/clients.xlsx
+++ b/excell/clients.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="790">
   <si>
     <t>ID</t>
   </si>
@@ -65,6 +65,2325 @@
   </si>
   <si>
     <t>2024-10-13 18:57:01.644325</t>
+  </si>
+  <si>
+    <t>2024-10-14 13:02:24.088732</t>
+  </si>
+  <si>
+    <t>77021653051</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:21:54.196061</t>
+  </si>
+  <si>
+    <t>77757109059</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:30:37.481362</t>
+  </si>
+  <si>
+    <t>Sandu2019</t>
+  </si>
+  <si>
+    <t>77082989108</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:31:06.140107</t>
+  </si>
+  <si>
+    <t>77052510001</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:32:34.403384</t>
+  </si>
+  <si>
+    <t>77476662721</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:33:45.014185</t>
+  </si>
+  <si>
+    <t>77058189757</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:33:52.762910</t>
+  </si>
+  <si>
+    <t>77782698181</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:36:19.076227</t>
+  </si>
+  <si>
+    <t>87773224601</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:36:56.329473</t>
+  </si>
+  <si>
+    <t>77003687021</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:36:58.768017</t>
+  </si>
+  <si>
+    <t>77084037578</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:38:40.446348</t>
+  </si>
+  <si>
+    <t>77078808680</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:38:48.122826</t>
+  </si>
+  <si>
+    <t>77029512852</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:39:08.518250</t>
+  </si>
+  <si>
+    <t>77759685079</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:39:15.898899</t>
+  </si>
+  <si>
+    <t>nurekef</t>
+  </si>
+  <si>
+    <t>77477150882</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:40:24.124408</t>
+  </si>
+  <si>
+    <t>77071019152</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:41:08.106782</t>
+  </si>
+  <si>
+    <t>77028014401</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:41:30.618651</t>
+  </si>
+  <si>
+    <t>77025762337</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:42:06.981759</t>
+  </si>
+  <si>
+    <t>77760068856</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:43:14.525027</t>
+  </si>
+  <si>
+    <t>77076264588</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:44:53.053218</t>
+  </si>
+  <si>
+    <t>77071941011</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:44:54.848010</t>
+  </si>
+  <si>
+    <t>absolute71</t>
+  </si>
+  <si>
+    <t>77778860009</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:45:08.720763</t>
+  </si>
+  <si>
+    <t>77476074045</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:46:20.933456</t>
+  </si>
+  <si>
+    <t>Aizhana_1994</t>
+  </si>
+  <si>
+    <t>77084804045</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:49:05.307124</t>
+  </si>
+  <si>
+    <t>77077770813</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:50:29.670980</t>
+  </si>
+  <si>
+    <t>77071090696</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:51:40.113024</t>
+  </si>
+  <si>
+    <t>77021937305</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:51:48.320575</t>
+  </si>
+  <si>
+    <t>kkkkkkkiiiiiiik</t>
+  </si>
+  <si>
+    <t>77055279826</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:52:05.679657</t>
+  </si>
+  <si>
+    <t>77715962888</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:53:23.260904</t>
+  </si>
+  <si>
+    <t>dhznsbc</t>
+  </si>
+  <si>
+    <t>77712956438</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:54:01.796785</t>
+  </si>
+  <si>
+    <t>87053500199</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:54:50.503500</t>
+  </si>
+  <si>
+    <t>77079219186</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:55:33.431316</t>
+  </si>
+  <si>
+    <t>rakhmaniyakyzy</t>
+  </si>
+  <si>
+    <t>77071010908</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:56:49.869147</t>
+  </si>
+  <si>
+    <t>77054336610</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:57:13.580093</t>
+  </si>
+  <si>
+    <t>+77760722405</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:58:51.011292</t>
+  </si>
+  <si>
+    <t>77018393911</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:59:47.258398</t>
+  </si>
+  <si>
+    <t>77068087007</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:01:05.757906</t>
+  </si>
+  <si>
+    <t>77054018681</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:01:06.460432</t>
+  </si>
+  <si>
+    <t>77075890177</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:03:23.736622</t>
+  </si>
+  <si>
+    <t>77773855878</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:03:29.770844</t>
+  </si>
+  <si>
+    <t>77751426595</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:04:12.922323</t>
+  </si>
+  <si>
+    <t>nurikazim02</t>
+  </si>
+  <si>
+    <t>77086812939</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:04:25.687885</t>
+  </si>
+  <si>
+    <t>77017428790</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:04:53.070960</t>
+  </si>
+  <si>
+    <t>77053585595</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:05:14.429775</t>
+  </si>
+  <si>
+    <t>akseleu_zhumabaebaaaa</t>
+  </si>
+  <si>
+    <t>77075431816</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:05:32.612997</t>
+  </si>
+  <si>
+    <t>77088374011</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:06:36.860818</t>
+  </si>
+  <si>
+    <t>77772701007</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:07:41.571362</t>
+  </si>
+  <si>
+    <t>77081488354</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:07:52.064420</t>
+  </si>
+  <si>
+    <t>ZHIGERz</t>
+  </si>
+  <si>
+    <t>77053148639</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:08:33.592843</t>
+  </si>
+  <si>
+    <t>Aikumistenoka</t>
+  </si>
+  <si>
+    <t>77025434892</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:08:49.394441</t>
+  </si>
+  <si>
+    <t>77012103172</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:09:17.820547</t>
+  </si>
+  <si>
+    <t>77470809495</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:09:26.551388</t>
+  </si>
+  <si>
+    <t>77087403695</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:11:48.540304</t>
+  </si>
+  <si>
+    <t>77023926330</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:12:59.951084</t>
+  </si>
+  <si>
+    <t>77771874070</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:13:30.460689</t>
+  </si>
+  <si>
+    <t>Akerke_Kayrat</t>
+  </si>
+  <si>
+    <t>77071181094</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:14:38.570218</t>
+  </si>
+  <si>
+    <t>77718920693</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:14:50.290796</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:14:52.226985</t>
+  </si>
+  <si>
+    <t>77475698408</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:15:17.683230</t>
+  </si>
+  <si>
+    <t>77000901590</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:15:23.208890</t>
+  </si>
+  <si>
+    <t>77025394098</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:17:36.753055</t>
+  </si>
+  <si>
+    <t>asxat000</t>
+  </si>
+  <si>
+    <t>+77761065454</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:18:03.188277</t>
+  </si>
+  <si>
+    <t>87081861314</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:19:20.855138</t>
+  </si>
+  <si>
+    <t>77757054387</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:21:11.076140</t>
+  </si>
+  <si>
+    <t>+77025366537</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:23:46.748658</t>
+  </si>
+  <si>
+    <t>77023871844</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:24:18.871319</t>
+  </si>
+  <si>
+    <t>77026666690</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:24:27.605689</t>
+  </si>
+  <si>
+    <t>77055518569</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:25:12.934299</t>
+  </si>
+  <si>
+    <t>zhansayayerkegali</t>
+  </si>
+  <si>
+    <t>77783502201</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:25:43.672046</t>
+  </si>
+  <si>
+    <t>77781706268</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:25:50.554044</t>
+  </si>
+  <si>
+    <t>asselarap</t>
+  </si>
+  <si>
+    <t>77051138212</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:29:09.767708</t>
+  </si>
+  <si>
+    <t>Niobious</t>
+  </si>
+  <si>
+    <t>77781554946</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:30:47.050507</t>
+  </si>
+  <si>
+    <t>khaytbaevn</t>
+  </si>
+  <si>
+    <t>77086657755</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:31:21.441672</t>
+  </si>
+  <si>
+    <t>77078323215</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:32:08.095427</t>
+  </si>
+  <si>
+    <t>77057750631</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:32:54.059693</t>
+  </si>
+  <si>
+    <t>dinmukhammetkz</t>
+  </si>
+  <si>
+    <t>77753600733</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:33:22.947256</t>
+  </si>
+  <si>
+    <t>77753009172</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:34:08.129482</t>
+  </si>
+  <si>
+    <t>77016280489</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:34:10.441358</t>
+  </si>
+  <si>
+    <t>77750091077</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:34:23.315492</t>
+  </si>
+  <si>
+    <t>77751002021</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:34:31.958091</t>
+  </si>
+  <si>
+    <t>Wwww450</t>
+  </si>
+  <si>
+    <t>77783888680</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:37:30.385650</t>
+  </si>
+  <si>
+    <t>77015399531</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:37:47.717255</t>
+  </si>
+  <si>
+    <t>77758469438</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:38:24.931137</t>
+  </si>
+  <si>
+    <t>77787090469</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:38:56.746771</t>
+  </si>
+  <si>
+    <t>77016579169</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:39:29.363082</t>
+  </si>
+  <si>
+    <t>Suleimenov1</t>
+  </si>
+  <si>
+    <t>77057739919</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:39:43.575414</t>
+  </si>
+  <si>
+    <t>77022834890</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:39:48.332765</t>
+  </si>
+  <si>
+    <t>77767830557</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:39:55.511358</t>
+  </si>
+  <si>
+    <t>77784976402</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:41:46.448564</t>
+  </si>
+  <si>
+    <t>77785111090</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:42:16.970794</t>
+  </si>
+  <si>
+    <t>77761662327</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:42:54.216663</t>
+  </si>
+  <si>
+    <t>event_sapa</t>
+  </si>
+  <si>
+    <t>77083633027</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:43:12.659851</t>
+  </si>
+  <si>
+    <t>77025948598</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:44:22.820614</t>
+  </si>
+  <si>
+    <t>77086540095</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:45:23.178815</t>
+  </si>
+  <si>
+    <t>77058278492</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:46:31.611027</t>
+  </si>
+  <si>
+    <t>77784992900</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:46:32.176750</t>
+  </si>
+  <si>
+    <t>brend_qazaq_ismer</t>
+  </si>
+  <si>
+    <t>77472210191</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:46:49.011119</t>
+  </si>
+  <si>
+    <t>77051763763</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:46:56.511674</t>
+  </si>
+  <si>
+    <t>77751390701</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:50:27.358478</t>
+  </si>
+  <si>
+    <t>77025340697</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:52:05.784489</t>
+  </si>
+  <si>
+    <t>77717848084</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:53:28.345125</t>
+  </si>
+  <si>
+    <t>77071727294</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:53:40.458710</t>
+  </si>
+  <si>
+    <t>77019033327</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:54:59.728069</t>
+  </si>
+  <si>
+    <t>77474097870</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:57:23.459186</t>
+  </si>
+  <si>
+    <t>77788074007</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:57:46.494826</t>
+  </si>
+  <si>
+    <t>Eleonora_Berikovna</t>
+  </si>
+  <si>
+    <t>77015253538</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:59:05.630453</t>
+  </si>
+  <si>
+    <t>Marjantai</t>
+  </si>
+  <si>
+    <t>77070489596</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:01:19.415981</t>
+  </si>
+  <si>
+    <t>77021337972</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:03:49.398290</t>
+  </si>
+  <si>
+    <t>77073540376</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:04:32.619024</t>
+  </si>
+  <si>
+    <t>77477280736</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:07:13.404778</t>
+  </si>
+  <si>
+    <t>77083565304</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:09:22.539519</t>
+  </si>
+  <si>
+    <t>77754184934</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:12:29.603448</t>
+  </si>
+  <si>
+    <t>77014037773</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:14:17.822419</t>
+  </si>
+  <si>
+    <t>77025091029</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:15:52.036084</t>
+  </si>
+  <si>
+    <t>AidanaBaktybek</t>
+  </si>
+  <si>
+    <t>77476462661</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:16:08.782541</t>
+  </si>
+  <si>
+    <t>77071290578</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:17:52.015081</t>
+  </si>
+  <si>
+    <t>77021405427</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:22:06.026340</t>
+  </si>
+  <si>
+    <t>77029307090</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:22:34.815827</t>
+  </si>
+  <si>
+    <t>77079443969</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:22:58.984981</t>
+  </si>
+  <si>
+    <t>77077636587</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:26:10.716929</t>
+  </si>
+  <si>
+    <t>77071078792</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:27:02.192810</t>
+  </si>
+  <si>
+    <t>77082700995</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:29:02.592318</t>
+  </si>
+  <si>
+    <t>77713764011</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:29:37.835071</t>
+  </si>
+  <si>
+    <t>77757012922</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:32:00.459624</t>
+  </si>
+  <si>
+    <t>77007777874</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:32:32.404360</t>
+  </si>
+  <si>
+    <t>77478018138</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:34:31.183854</t>
+  </si>
+  <si>
+    <t>77771710846</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:35:03.126526</t>
+  </si>
+  <si>
+    <t>77784205192</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:35:23.493619</t>
+  </si>
+  <si>
+    <t>77012348587</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:36:14.958761</t>
+  </si>
+  <si>
+    <t>Gulsanat89</t>
+  </si>
+  <si>
+    <t>77026225824</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:36:37.818530</t>
+  </si>
+  <si>
+    <t>77021797481</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:38:01.880193</t>
+  </si>
+  <si>
+    <t>77085234616</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:39:42.364749</t>
+  </si>
+  <si>
+    <t>77023646781</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:45:23.007601</t>
+  </si>
+  <si>
+    <t>77026896991</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:46:40.554927</t>
+  </si>
+  <si>
+    <t>87773707022</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:48:18.569977</t>
+  </si>
+  <si>
+    <t>77767678787</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:48:36.283594</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:49:42.459477</t>
+  </si>
+  <si>
+    <t>77073239076</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:50:20.518322</t>
+  </si>
+  <si>
+    <t>77759265693</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:53:27.586775</t>
+  </si>
+  <si>
+    <t>77476093946</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:54:03.231908</t>
+  </si>
+  <si>
+    <t>77786475452</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:56:05.398059</t>
+  </si>
+  <si>
+    <t>77473640713</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:56:34.750948</t>
+  </si>
+  <si>
+    <t>87011662502</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:57:34.005915</t>
+  </si>
+  <si>
+    <t>77018995599</t>
+  </si>
+  <si>
+    <t>2024-10-14 17:58:47.057517</t>
+  </si>
+  <si>
+    <t>77758719834</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:01:08.061314</t>
+  </si>
+  <si>
+    <t>kz090OUO</t>
+  </si>
+  <si>
+    <t>77026549555</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:01:19.145818</t>
+  </si>
+  <si>
+    <t>77015959065</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:02:19.684808</t>
+  </si>
+  <si>
+    <t>77054450508</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:02:41.886595</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:03:06.229898</t>
+  </si>
+  <si>
+    <t>77789824148</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:10:57.561035</t>
+  </si>
+  <si>
+    <t>77072591955</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:11:05.764485</t>
+  </si>
+  <si>
+    <t>arman_14_10</t>
+  </si>
+  <si>
+    <t>77472866961</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:11:13.659021</t>
+  </si>
+  <si>
+    <t>77471702298</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:13:46.334331</t>
+  </si>
+  <si>
+    <t>77089600270</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:14:00.527921</t>
+  </si>
+  <si>
+    <t>77775064626</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:15:00.499139</t>
+  </si>
+  <si>
+    <t>77089509015</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:15:12.141287</t>
+  </si>
+  <si>
+    <t>77016495101</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:18:37.845323</t>
+  </si>
+  <si>
+    <t>77713036554</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:19:16.555845</t>
+  </si>
+  <si>
+    <t>77476174548</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:20:46.589051</t>
+  </si>
+  <si>
+    <t>77011539572</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:21:39.169511</t>
+  </si>
+  <si>
+    <t>77021363456</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:22:19.343612</t>
+  </si>
+  <si>
+    <t>asema0791</t>
+  </si>
+  <si>
+    <t>77779492001</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:23:36.334313</t>
+  </si>
+  <si>
+    <t>77787417444</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:30:55.485045</t>
+  </si>
+  <si>
+    <t>77022709383</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:32:08.866115</t>
+  </si>
+  <si>
+    <t>berik1979</t>
+  </si>
+  <si>
+    <t>77017731717</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:34:23.359539</t>
+  </si>
+  <si>
+    <t>998905925351</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:34:56.084638</t>
+  </si>
+  <si>
+    <t>77082658527</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:36:02.167962</t>
+  </si>
+  <si>
+    <t>77770130858</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:37:59.788017</t>
+  </si>
+  <si>
+    <t>Chandi1997414</t>
+  </si>
+  <si>
+    <t>77762038891</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:42:50.271023</t>
+  </si>
+  <si>
+    <t>Abdiyev_Nur</t>
+  </si>
+  <si>
+    <t>77782800057</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:45:45.237142</t>
+  </si>
+  <si>
+    <t>77781726753</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:46:15.233657</t>
+  </si>
+  <si>
+    <t>Guldina_94</t>
+  </si>
+  <si>
+    <t>77783964826</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:48:31.306261</t>
+  </si>
+  <si>
+    <t>77022484151</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:49:48.594989</t>
+  </si>
+  <si>
+    <t>77012568566</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:57:15.961816</t>
+  </si>
+  <si>
+    <t>77081712345</t>
+  </si>
+  <si>
+    <t>2024-10-14 18:59:36.832672</t>
+  </si>
+  <si>
+    <t>77077351712</t>
+  </si>
+  <si>
+    <t>2024-10-14 19:05:21.238485</t>
+  </si>
+  <si>
+    <t>77758855470</t>
+  </si>
+  <si>
+    <t>2024-10-14 19:06:38.286245</t>
+  </si>
+  <si>
+    <t>77077172207</t>
+  </si>
+  <si>
+    <t>2024-10-14 19:08:40.486525</t>
+  </si>
+  <si>
+    <t>77470874695</t>
+  </si>
+  <si>
+    <t>2024-10-14 19:18:37.092555</t>
+  </si>
+  <si>
+    <t>77021941605</t>
+  </si>
+  <si>
+    <t>2024-10-14 19:19:54.475608</t>
+  </si>
+  <si>
+    <t>77025515151</t>
+  </si>
+  <si>
+    <t>2024-10-14 19:20:30.467544</t>
+  </si>
+  <si>
+    <t>Kalamkasahat</t>
+  </si>
+  <si>
+    <t>77777888989</t>
+  </si>
+  <si>
+    <t>2024-10-14 19:24:02.747761</t>
+  </si>
+  <si>
+    <t>77474388351</t>
+  </si>
+  <si>
+    <t>2024-10-14 19:33:38.166500</t>
+  </si>
+  <si>
+    <t>yerkinov10</t>
+  </si>
+  <si>
+    <t>77774890117</t>
+  </si>
+  <si>
+    <t>2024-10-14 19:34:01.647761</t>
+  </si>
+  <si>
+    <t>zhanabill</t>
+  </si>
+  <si>
+    <t>77076989676</t>
+  </si>
+  <si>
+    <t>2024-10-14 19:34:34.710847</t>
+  </si>
+  <si>
+    <t>77714339691</t>
+  </si>
+  <si>
+    <t>2024-10-14 19:34:48.596321</t>
+  </si>
+  <si>
+    <t>77474684692</t>
+  </si>
+  <si>
+    <t>2024-10-14 19:46:50.441617</t>
+  </si>
+  <si>
+    <t>77778270027</t>
+  </si>
+  <si>
+    <t>2024-10-14 19:49:22.075044</t>
+  </si>
+  <si>
+    <t>77767836093</t>
+  </si>
+  <si>
+    <t>2024-10-14 19:52:09.696058</t>
+  </si>
+  <si>
+    <t>77007217080</t>
+  </si>
+  <si>
+    <t>2024-10-14 19:57:09.755199</t>
+  </si>
+  <si>
+    <t>77052393719</t>
+  </si>
+  <si>
+    <t>2024-10-14 19:59:33.151387</t>
+  </si>
+  <si>
+    <t>77712903083</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:01:00.279077</t>
+  </si>
+  <si>
+    <t>77782706893</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:02:01.535791</t>
+  </si>
+  <si>
+    <t>+77079472991</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:04:06.381404</t>
+  </si>
+  <si>
+    <t>TolkynNI</t>
+  </si>
+  <si>
+    <t>77472270754</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:04:07.002820</t>
+  </si>
+  <si>
+    <t>77477097873</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:07:56.681477</t>
+  </si>
+  <si>
+    <t>bekw09</t>
+  </si>
+  <si>
+    <t>77755373527</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:16:13.932817</t>
+  </si>
+  <si>
+    <t>daugeldiev_5</t>
+  </si>
+  <si>
+    <t>77761941717</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:16:29.284366</t>
+  </si>
+  <si>
+    <t>77472083934</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:17:55.247119</t>
+  </si>
+  <si>
+    <t>77712907533</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:18:54.468149</t>
+  </si>
+  <si>
+    <t>77074236995</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:21:47.490130</t>
+  </si>
+  <si>
+    <t>77084198447</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:29:34.798409</t>
+  </si>
+  <si>
+    <t>77472335084</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:31:45.526588</t>
+  </si>
+  <si>
+    <t>77757478888</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:34:55.985490</t>
+  </si>
+  <si>
+    <t>77079199100</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:39:12.058540</t>
+  </si>
+  <si>
+    <t>bond_low</t>
+  </si>
+  <si>
+    <t>77074569517</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:39:21.158649</t>
+  </si>
+  <si>
+    <t>dizZz101101</t>
+  </si>
+  <si>
+    <t>77786043217</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:42:18.536078</t>
+  </si>
+  <si>
+    <t>Bauyrjois</t>
+  </si>
+  <si>
+    <t>77013338801</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:43:01.092709</t>
+  </si>
+  <si>
+    <t>77027566703</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:44:38.272168</t>
+  </si>
+  <si>
+    <t>77789978893</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:44:51.549941</t>
+  </si>
+  <si>
+    <t>77753994179</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:46:33.431874</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:47:07.193662</t>
+  </si>
+  <si>
+    <t>77019788430</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:56:07.500431</t>
+  </si>
+  <si>
+    <t>77477726122</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:57:56.010722</t>
+  </si>
+  <si>
+    <t>77073008097</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:58:47.825870</t>
+  </si>
+  <si>
+    <t>77772270044</t>
+  </si>
+  <si>
+    <t>2024-10-14 21:06:06.552728</t>
+  </si>
+  <si>
+    <t>77081011751</t>
+  </si>
+  <si>
+    <t>2024-10-14 21:06:23.926322</t>
+  </si>
+  <si>
+    <t>77765918855</t>
+  </si>
+  <si>
+    <t>2024-10-14 21:10:00.232253</t>
+  </si>
+  <si>
+    <t>77753035583</t>
+  </si>
+  <si>
+    <t>2024-10-14 21:12:41.283834</t>
+  </si>
+  <si>
+    <t>beineu1234</t>
+  </si>
+  <si>
+    <t>77760234567</t>
+  </si>
+  <si>
+    <t>2024-10-14 21:17:02.482923</t>
+  </si>
+  <si>
+    <t>77476200046</t>
+  </si>
+  <si>
+    <t>2024-10-14 21:24:40.788151</t>
+  </si>
+  <si>
+    <t>87474400821</t>
+  </si>
+  <si>
+    <t>2024-10-14 21:31:03.359404</t>
+  </si>
+  <si>
+    <t>77079857373</t>
+  </si>
+  <si>
+    <t>2024-10-14 21:46:47.823782</t>
+  </si>
+  <si>
+    <t>77785559967</t>
+  </si>
+  <si>
+    <t>2024-10-14 21:59:24.467758</t>
+  </si>
+  <si>
+    <t>77022870787</t>
+  </si>
+  <si>
+    <t>2024-10-14 22:16:27.224477</t>
+  </si>
+  <si>
+    <t>77714136186</t>
+  </si>
+  <si>
+    <t>2024-10-14 22:24:07.858902</t>
+  </si>
+  <si>
+    <t>77018401287</t>
+  </si>
+  <si>
+    <t>2024-10-14 22:25:50.891033</t>
+  </si>
+  <si>
+    <t>77788304198</t>
+  </si>
+  <si>
+    <t>2024-10-14 23:00:11.901356</t>
+  </si>
+  <si>
+    <t>77781788570</t>
+  </si>
+  <si>
+    <t>2024-10-14 23:07:41.344196</t>
+  </si>
+  <si>
+    <t>baurbanadinovich</t>
+  </si>
+  <si>
+    <t>77026288353</t>
+  </si>
+  <si>
+    <t>2024-10-14 23:14:52.664059</t>
+  </si>
+  <si>
+    <t>77717770555</t>
+  </si>
+  <si>
+    <t>2024-10-14 23:43:20.117119</t>
+  </si>
+  <si>
+    <t>77076452000</t>
+  </si>
+  <si>
+    <t>2024-10-15 00:34:50.113919</t>
+  </si>
+  <si>
+    <t>77765196653</t>
+  </si>
+  <si>
+    <t>2024-10-15 00:57:30.376267</t>
+  </si>
+  <si>
+    <t>77074825234</t>
+  </si>
+  <si>
+    <t>2024-10-15 00:58:48.415990</t>
+  </si>
+  <si>
+    <t>Kuanysh056</t>
+  </si>
+  <si>
+    <t>77079707029</t>
+  </si>
+  <si>
+    <t>2024-10-15 01:12:11.603325</t>
+  </si>
+  <si>
+    <t>Mako87</t>
+  </si>
+  <si>
+    <t>77079616893</t>
+  </si>
+  <si>
+    <t>2024-10-15 01:15:56.674462</t>
+  </si>
+  <si>
+    <t>77774469696</t>
+  </si>
+  <si>
+    <t>2024-10-15 01:17:01.201343</t>
+  </si>
+  <si>
+    <t>77072989801</t>
+  </si>
+  <si>
+    <t>2024-10-15 01:36:24.204298</t>
+  </si>
+  <si>
+    <t>77477450468</t>
+  </si>
+  <si>
+    <t>2024-10-15 01:38:19.517346</t>
+  </si>
+  <si>
+    <t>77021293995</t>
+  </si>
+  <si>
+    <t>2024-10-15 01:38:29.110070</t>
+  </si>
+  <si>
+    <t>77056179698</t>
+  </si>
+  <si>
+    <t>2024-10-15 01:42:23.899835</t>
+  </si>
+  <si>
+    <t>77474848994</t>
+  </si>
+  <si>
+    <t>2024-10-15 01:45:55.784968</t>
+  </si>
+  <si>
+    <t>uzanov</t>
+  </si>
+  <si>
+    <t>77711122297</t>
+  </si>
+  <si>
+    <t>2024-10-15 01:54:10.405156</t>
+  </si>
+  <si>
+    <t>Abzal1234567</t>
+  </si>
+  <si>
+    <t>77781954665</t>
+  </si>
+  <si>
+    <t>2024-10-15 01:58:21.646026</t>
+  </si>
+  <si>
+    <t>77754385757</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:02:39.257656</t>
+  </si>
+  <si>
+    <t>87758542857</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:03:51.478532</t>
+  </si>
+  <si>
+    <t>deegdar_mukanova</t>
+  </si>
+  <si>
+    <t>87083145004</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:04:17.395209</t>
+  </si>
+  <si>
+    <t>77781981208</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:07:16.481183</t>
+  </si>
+  <si>
+    <t>zhansulu_saduyeva</t>
+  </si>
+  <si>
+    <t>77012114031</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:07:51.060565</t>
+  </si>
+  <si>
+    <t>Baidaulet</t>
+  </si>
+  <si>
+    <t>77476065716</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:21:12.402274</t>
+  </si>
+  <si>
+    <t>77476097718</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:26:55.514155</t>
+  </si>
+  <si>
+    <t>Janchik_86</t>
+  </si>
+  <si>
+    <t>77013442267</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:28:05.918867</t>
+  </si>
+  <si>
+    <t>77472363838</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:33:01.029325</t>
+  </si>
+  <si>
+    <t>77713409523</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:33:17.414602</t>
+  </si>
+  <si>
+    <t>issabaevv</t>
+  </si>
+  <si>
+    <t>77471755985</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:33:43.627695</t>
+  </si>
+  <si>
+    <t>77786188723</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:33:46.768170</t>
+  </si>
+  <si>
+    <t>77471064331</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:35:49.461005</t>
+  </si>
+  <si>
+    <t>77789974755</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:42:44.257375</t>
+  </si>
+  <si>
+    <t>77026714015</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:43:44.186262</t>
+  </si>
+  <si>
+    <t>77477097504</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:44:25.193036</t>
+  </si>
+  <si>
+    <t>77051488058</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:45:48.657871</t>
+  </si>
+  <si>
+    <t>77077771491</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:46:13.655671</t>
+  </si>
+  <si>
+    <t>77071930131</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:48:32.272200</t>
+  </si>
+  <si>
+    <t>77759256407</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:52:22.936748</t>
+  </si>
+  <si>
+    <t>77779624022</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:52:57.689133</t>
+  </si>
+  <si>
+    <t>77754606889</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:54:03.253739</t>
+  </si>
+  <si>
+    <t>77077700686</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:56:11.954906</t>
+  </si>
+  <si>
+    <t>77472051690</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:57:13.261040</t>
+  </si>
+  <si>
+    <t>77073626121</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:03:12.724353</t>
+  </si>
+  <si>
+    <t>77475550179</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:07:36.260806</t>
+  </si>
+  <si>
+    <t>77005757193</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:08:50.259105</t>
+  </si>
+  <si>
+    <t>+77007444077</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:10:35.726155</t>
+  </si>
+  <si>
+    <t>Elmira_Zhangeldi</t>
+  </si>
+  <si>
+    <t>77474050928</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:11:45.154138</t>
+  </si>
+  <si>
+    <t>77777603643</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:12:59.596377</t>
+  </si>
+  <si>
+    <t>Aiya2610</t>
+  </si>
+  <si>
+    <t>77071919809</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:15:48.261098</t>
+  </si>
+  <si>
+    <t>77026953388</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:15:49.059859</t>
+  </si>
+  <si>
+    <t>SullltannnB</t>
+  </si>
+  <si>
+    <t>77785516568</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:16:08.552506</t>
+  </si>
+  <si>
+    <t>77083052131</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:17:25.453801</t>
+  </si>
+  <si>
+    <t>77478206038</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:18:42.426956</t>
+  </si>
+  <si>
+    <t>77055612875</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:18:49.843314</t>
+  </si>
+  <si>
+    <t>AinellaSamidin</t>
+  </si>
+  <si>
+    <t>77076850314</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:19:30.203809</t>
+  </si>
+  <si>
+    <t>77770489615</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:20:21.734298</t>
+  </si>
+  <si>
+    <t>77761742591</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:22:42.859349</t>
+  </si>
+  <si>
+    <t>+77755219538</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:26:14.241314</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:27:24.958815</t>
+  </si>
+  <si>
+    <t>77054098152</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:30:11.348300</t>
+  </si>
+  <si>
+    <t>77774530477</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:36:43.653237</t>
+  </si>
+  <si>
+    <t>77011464043</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:41:14.153244</t>
+  </si>
+  <si>
+    <t>Gmoldabek</t>
+  </si>
+  <si>
+    <t>77016474784</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:42:31.714638</t>
+  </si>
+  <si>
+    <t>87477187071</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:48:02.406918</t>
+  </si>
+  <si>
+    <t>AbaiDos</t>
+  </si>
+  <si>
+    <t>77078041404</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:48:56.351931</t>
+  </si>
+  <si>
+    <t>77710021100</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:50:47.296118</t>
+  </si>
+  <si>
+    <t>77011035026</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:51:47.010744</t>
+  </si>
+  <si>
+    <t>Raxa96</t>
+  </si>
+  <si>
+    <t>87071379560</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:53:01.890688</t>
+  </si>
+  <si>
+    <t>Moldirsmm</t>
+  </si>
+  <si>
+    <t>77011356999</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:54:20.758625</t>
+  </si>
+  <si>
+    <t>77478848603</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:55:33.365423</t>
+  </si>
+  <si>
+    <t>77719152190</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:58:33.620698</t>
+  </si>
+  <si>
+    <t>77085473500</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:59:17.795034</t>
+  </si>
+  <si>
+    <t>77077541233</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:01:56.789502</t>
+  </si>
+  <si>
+    <t>77788469620</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:03:01.979745</t>
+  </si>
+  <si>
+    <t>77083008568</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:06:36.156949</t>
+  </si>
+  <si>
+    <t>Aqgulim_kurmashkyzy</t>
+  </si>
+  <si>
+    <t>77077231828</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:07:50.688781</t>
+  </si>
+  <si>
+    <t>77763106777</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:08:45.002372</t>
+  </si>
+  <si>
+    <t>+77758378908</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:08:53.583280</t>
+  </si>
+  <si>
+    <t>77474169495</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:10:46.892823</t>
+  </si>
+  <si>
+    <t>77477537375</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:10:50.633669</t>
+  </si>
+  <si>
+    <t>islambek1990</t>
+  </si>
+  <si>
+    <t>998770899595</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:11:30.609117</t>
+  </si>
+  <si>
+    <t>77011333133</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:13:36.635394</t>
+  </si>
+  <si>
+    <t>77766612815</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:15:23.994566</t>
+  </si>
+  <si>
+    <t>87023189722</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:15:39.881294</t>
+  </si>
+  <si>
+    <t>77051520175</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:16:32.733148</t>
+  </si>
+  <si>
+    <t>77474051525</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:17:49.945892</t>
+  </si>
+  <si>
+    <t>77054753635</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:18:21.515211</t>
+  </si>
+  <si>
+    <t>87058150491</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:19:02.921163</t>
+  </si>
+  <si>
+    <t>sanamnalibaeva</t>
+  </si>
+  <si>
+    <t>77475522287</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:20:09.961275</t>
+  </si>
+  <si>
+    <t>77476980703</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:20:37.318057</t>
+  </si>
+  <si>
+    <t>77475280779</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:22:42.700221</t>
+  </si>
+  <si>
+    <t>77775323293</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:23:56.443192</t>
+  </si>
+  <si>
+    <t>87087156690</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:25:18.243233</t>
+  </si>
+  <si>
+    <t>RausanSuleiman</t>
+  </si>
+  <si>
+    <t>77014666648</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:27:28.192499</t>
+  </si>
+  <si>
+    <t>77751780277</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:27:41.189165</t>
+  </si>
+  <si>
+    <t>aliya051180</t>
+  </si>
+  <si>
+    <t>77055381281</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:30:10.751066</t>
+  </si>
+  <si>
+    <t>77477860524</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:31:05.990429</t>
+  </si>
+  <si>
+    <t>77025737390</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:31:33.406915</t>
+  </si>
+  <si>
+    <t>77755915492</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:31:34.603331</t>
+  </si>
+  <si>
+    <t>77761518525</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:31:42.106514</t>
+  </si>
+  <si>
+    <t>77026428854</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:33:39.361365</t>
+  </si>
+  <si>
+    <t>77755753435</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:33:56.815675</t>
+  </si>
+  <si>
+    <t>ablaevnam</t>
+  </si>
+  <si>
+    <t>77073122847</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:34:37.655747</t>
+  </si>
+  <si>
+    <t>Bekmanov_Zhassulan</t>
+  </si>
+  <si>
+    <t>77077376555</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:36:01.887427</t>
+  </si>
+  <si>
+    <t>77715991945</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:39:05.758852</t>
+  </si>
+  <si>
+    <t>Alfinaablaeva</t>
+  </si>
+  <si>
+    <t>77076509098</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:39:15.796363</t>
+  </si>
+  <si>
+    <t>mahmudov1990</t>
+  </si>
+  <si>
+    <t>77075061990</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:40:01.602269</t>
+  </si>
+  <si>
+    <t>77025311996</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:41:41.427571</t>
+  </si>
+  <si>
+    <t>821029327447</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:42:16.168030</t>
+  </si>
+  <si>
+    <t>77073595252</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:42:49.113845</t>
+  </si>
+  <si>
+    <t>r_bagdat</t>
+  </si>
+  <si>
+    <t>77777090188</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:43:15.308394</t>
+  </si>
+  <si>
+    <t>77784912829</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:44:21.644532</t>
+  </si>
+  <si>
+    <t>87771129304</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:44:24.512773</t>
+  </si>
+  <si>
+    <t>77477441298</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:45:28.201262</t>
+  </si>
+  <si>
+    <t>77056619454</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:45:53.239560</t>
+  </si>
+  <si>
+    <t>Nurtilek_kz</t>
+  </si>
+  <si>
+    <t>77761019946</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:46:13.279866</t>
+  </si>
+  <si>
+    <t>77787868855</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:46:37.952903</t>
+  </si>
+  <si>
+    <t>aikorkem622</t>
+  </si>
+  <si>
+    <t>77471997622</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:47:11.939190</t>
+  </si>
+  <si>
+    <t>AlmazKanat</t>
+  </si>
+  <si>
+    <t>87756056655</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:47:13.212914</t>
+  </si>
+  <si>
+    <t>77476892487</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:48:37.986794</t>
+  </si>
+  <si>
+    <t>87073001103</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:50:06.871016</t>
+  </si>
+  <si>
+    <t>77052453536</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:50:13.101712</t>
+  </si>
+  <si>
+    <t>77712683319</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:51:28.145660</t>
+  </si>
+  <si>
+    <t>Abilkasym_01</t>
+  </si>
+  <si>
+    <t>77078196989</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:52:25.556978</t>
+  </si>
+  <si>
+    <t>77087817040</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:53:07.748909</t>
+  </si>
+  <si>
+    <t>77088512554</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:53:32.746105</t>
   </si>
 </sst>
 </file>
@@ -396,7 +2715,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,6 +2827,7271 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6768397766</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7446290435</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1968686253</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1378102292</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1131737713</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>519805952</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>819332494</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1786391907</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>568788357</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1400204741</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5126160191</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6358898275</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1983148313</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>997053760</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>616092672</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1693247970</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>990676705</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>5333587178</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>5693036154</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>937355829</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>5045682448</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1022831731</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2098275635</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1202758067</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>6680086561</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>682898804</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>5843064246</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>597513636</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>888274834</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>505531051</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>5155573382</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>467271906</v>
+      </c>
+      <c r="D37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1520706727</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1103242391</v>
+      </c>
+      <c r="D39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>5667777910</v>
+      </c>
+      <c r="D40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1023934209</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>2066774605</v>
+      </c>
+      <c r="D42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7485948399</v>
+      </c>
+      <c r="D43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>285774151</v>
+      </c>
+      <c r="D44" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>6844591601</v>
+      </c>
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1427677153</v>
+      </c>
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1023859231</v>
+      </c>
+      <c r="C47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>723542934</v>
+      </c>
+      <c r="D48" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2020562706</v>
+      </c>
+      <c r="D49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>862216513</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>944807572</v>
+      </c>
+      <c r="D51" t="s">
+        <v>115</v>
+      </c>
+      <c r="E51" t="s">
+        <v>116</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>534251951</v>
+      </c>
+      <c r="D52" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1118373323</v>
+      </c>
+      <c r="D53" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>5802704304</v>
+      </c>
+      <c r="C54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>5767488760</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>6896679128</v>
+      </c>
+      <c r="D56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>842151575</v>
+      </c>
+      <c r="D57" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>5742804876</v>
+      </c>
+      <c r="D58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1887530996</v>
+      </c>
+      <c r="D59" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" t="s">
+        <v>134</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>6019500367</v>
+      </c>
+      <c r="D60" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7304008849</v>
+      </c>
+      <c r="C61" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7147326542</v>
+      </c>
+      <c r="D62" t="s">
+        <v>140</v>
+      </c>
+      <c r="E62" t="s">
+        <v>141</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>944807572</v>
+      </c>
+      <c r="D63" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>5596966302</v>
+      </c>
+      <c r="D64" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" t="s">
+        <v>144</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1850497879</v>
+      </c>
+      <c r="D65" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1200208303</v>
+      </c>
+      <c r="D66" t="s">
+        <v>147</v>
+      </c>
+      <c r="E66" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>380306791</v>
+      </c>
+      <c r="C67" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67" t="s">
+        <v>151</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>5906216553</v>
+      </c>
+      <c r="D68" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68" t="s">
+        <v>153</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>684339613</v>
+      </c>
+      <c r="D69" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" t="s">
+        <v>155</v>
+      </c>
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>123923688</v>
+      </c>
+      <c r="D70" t="s">
+        <v>156</v>
+      </c>
+      <c r="E70" t="s">
+        <v>157</v>
+      </c>
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>6273720080</v>
+      </c>
+      <c r="D71" t="s">
+        <v>158</v>
+      </c>
+      <c r="E71" t="s">
+        <v>159</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>6677079294</v>
+      </c>
+      <c r="D72" t="s">
+        <v>160</v>
+      </c>
+      <c r="E72" t="s">
+        <v>161</v>
+      </c>
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>5015235485</v>
+      </c>
+      <c r="D73" t="s">
+        <v>162</v>
+      </c>
+      <c r="E73" t="s">
+        <v>163</v>
+      </c>
+      <c r="F73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>460349665</v>
+      </c>
+      <c r="C74" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" t="s">
+        <v>165</v>
+      </c>
+      <c r="E74" t="s">
+        <v>166</v>
+      </c>
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>845729260</v>
+      </c>
+      <c r="D75" t="s">
+        <v>167</v>
+      </c>
+      <c r="E75" t="s">
+        <v>168</v>
+      </c>
+      <c r="F75" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>6292434669</v>
+      </c>
+      <c r="C76" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" t="s">
+        <v>170</v>
+      </c>
+      <c r="E76" t="s">
+        <v>171</v>
+      </c>
+      <c r="F76" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>624363615</v>
+      </c>
+      <c r="C77" t="s">
+        <v>172</v>
+      </c>
+      <c r="D77" t="s">
+        <v>173</v>
+      </c>
+      <c r="E77" t="s">
+        <v>174</v>
+      </c>
+      <c r="F77" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>400939865</v>
+      </c>
+      <c r="C78" t="s">
+        <v>175</v>
+      </c>
+      <c r="D78" t="s">
+        <v>176</v>
+      </c>
+      <c r="E78" t="s">
+        <v>177</v>
+      </c>
+      <c r="F78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>5406176476</v>
+      </c>
+      <c r="D79" t="s">
+        <v>178</v>
+      </c>
+      <c r="E79" t="s">
+        <v>179</v>
+      </c>
+      <c r="F79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>829102242</v>
+      </c>
+      <c r="D80" t="s">
+        <v>180</v>
+      </c>
+      <c r="E80" t="s">
+        <v>181</v>
+      </c>
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>464190644</v>
+      </c>
+      <c r="C81" t="s">
+        <v>182</v>
+      </c>
+      <c r="D81" t="s">
+        <v>183</v>
+      </c>
+      <c r="E81" t="s">
+        <v>184</v>
+      </c>
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>909912245</v>
+      </c>
+      <c r="D82" t="s">
+        <v>185</v>
+      </c>
+      <c r="E82" t="s">
+        <v>186</v>
+      </c>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>936398548</v>
+      </c>
+      <c r="D83" t="s">
+        <v>187</v>
+      </c>
+      <c r="E83" t="s">
+        <v>188</v>
+      </c>
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>767405394</v>
+      </c>
+      <c r="D84" t="s">
+        <v>189</v>
+      </c>
+      <c r="E84" t="s">
+        <v>190</v>
+      </c>
+      <c r="F84" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>6548496965</v>
+      </c>
+      <c r="D85" t="s">
+        <v>191</v>
+      </c>
+      <c r="E85" t="s">
+        <v>192</v>
+      </c>
+      <c r="F85" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>992007047</v>
+      </c>
+      <c r="C86" t="s">
+        <v>193</v>
+      </c>
+      <c r="D86" t="s">
+        <v>194</v>
+      </c>
+      <c r="E86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F86" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>630892121</v>
+      </c>
+      <c r="D87" t="s">
+        <v>196</v>
+      </c>
+      <c r="E87" t="s">
+        <v>197</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>1247476957</v>
+      </c>
+      <c r="D88" t="s">
+        <v>198</v>
+      </c>
+      <c r="E88" t="s">
+        <v>199</v>
+      </c>
+      <c r="F88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1042857684</v>
+      </c>
+      <c r="D89" t="s">
+        <v>200</v>
+      </c>
+      <c r="E89" t="s">
+        <v>201</v>
+      </c>
+      <c r="F89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>771048832</v>
+      </c>
+      <c r="D90" t="s">
+        <v>202</v>
+      </c>
+      <c r="E90" t="s">
+        <v>203</v>
+      </c>
+      <c r="F90" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>694255354</v>
+      </c>
+      <c r="C91" t="s">
+        <v>204</v>
+      </c>
+      <c r="D91" t="s">
+        <v>205</v>
+      </c>
+      <c r="E91" t="s">
+        <v>206</v>
+      </c>
+      <c r="F91" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>1471808477</v>
+      </c>
+      <c r="D92" t="s">
+        <v>207</v>
+      </c>
+      <c r="E92" t="s">
+        <v>208</v>
+      </c>
+      <c r="F92" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>1096346637</v>
+      </c>
+      <c r="D93" t="s">
+        <v>209</v>
+      </c>
+      <c r="E93" t="s">
+        <v>210</v>
+      </c>
+      <c r="F93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>5038099957</v>
+      </c>
+      <c r="D94" t="s">
+        <v>211</v>
+      </c>
+      <c r="E94" t="s">
+        <v>212</v>
+      </c>
+      <c r="F94" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>842073513</v>
+      </c>
+      <c r="D95" t="s">
+        <v>213</v>
+      </c>
+      <c r="E95" t="s">
+        <v>214</v>
+      </c>
+      <c r="F95" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>5783212730</v>
+      </c>
+      <c r="D96" t="s">
+        <v>215</v>
+      </c>
+      <c r="E96" t="s">
+        <v>216</v>
+      </c>
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>594620032</v>
+      </c>
+      <c r="C97" t="s">
+        <v>217</v>
+      </c>
+      <c r="D97" t="s">
+        <v>218</v>
+      </c>
+      <c r="E97" t="s">
+        <v>219</v>
+      </c>
+      <c r="F97" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>715565384</v>
+      </c>
+      <c r="D98" t="s">
+        <v>220</v>
+      </c>
+      <c r="E98" t="s">
+        <v>221</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>6798630887</v>
+      </c>
+      <c r="D99" t="s">
+        <v>222</v>
+      </c>
+      <c r="E99" t="s">
+        <v>223</v>
+      </c>
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7507036466</v>
+      </c>
+      <c r="D100" t="s">
+        <v>224</v>
+      </c>
+      <c r="E100" t="s">
+        <v>225</v>
+      </c>
+      <c r="F100" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>1774340664</v>
+      </c>
+      <c r="D101" t="s">
+        <v>226</v>
+      </c>
+      <c r="E101" t="s">
+        <v>227</v>
+      </c>
+      <c r="F101" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>821580934</v>
+      </c>
+      <c r="C102" t="s">
+        <v>228</v>
+      </c>
+      <c r="D102" t="s">
+        <v>229</v>
+      </c>
+      <c r="E102" t="s">
+        <v>230</v>
+      </c>
+      <c r="F102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>772720337</v>
+      </c>
+      <c r="D103" t="s">
+        <v>231</v>
+      </c>
+      <c r="E103" t="s">
+        <v>232</v>
+      </c>
+      <c r="F103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7144072315</v>
+      </c>
+      <c r="D104" t="s">
+        <v>233</v>
+      </c>
+      <c r="E104" t="s">
+        <v>234</v>
+      </c>
+      <c r="F104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>6621663177</v>
+      </c>
+      <c r="D105" t="s">
+        <v>235</v>
+      </c>
+      <c r="E105" t="s">
+        <v>236</v>
+      </c>
+      <c r="F105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>955321975</v>
+      </c>
+      <c r="D106" t="s">
+        <v>237</v>
+      </c>
+      <c r="E106" t="s">
+        <v>238</v>
+      </c>
+      <c r="F106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>6581201477</v>
+      </c>
+      <c r="D107" t="s">
+        <v>239</v>
+      </c>
+      <c r="E107" t="s">
+        <v>240</v>
+      </c>
+      <c r="F107" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>1180124966</v>
+      </c>
+      <c r="D108" t="s">
+        <v>241</v>
+      </c>
+      <c r="E108" t="s">
+        <v>242</v>
+      </c>
+      <c r="F108" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>661095407</v>
+      </c>
+      <c r="D109" t="s">
+        <v>243</v>
+      </c>
+      <c r="E109" t="s">
+        <v>244</v>
+      </c>
+      <c r="F109" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>997930215</v>
+      </c>
+      <c r="D110" t="s">
+        <v>245</v>
+      </c>
+      <c r="E110" t="s">
+        <v>246</v>
+      </c>
+      <c r="F110" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>779504508</v>
+      </c>
+      <c r="C111" t="s">
+        <v>247</v>
+      </c>
+      <c r="D111" t="s">
+        <v>248</v>
+      </c>
+      <c r="E111" t="s">
+        <v>249</v>
+      </c>
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>5714030928</v>
+      </c>
+      <c r="C112" t="s">
+        <v>250</v>
+      </c>
+      <c r="D112" t="s">
+        <v>251</v>
+      </c>
+      <c r="E112" t="s">
+        <v>252</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>6509594671</v>
+      </c>
+      <c r="D113" t="s">
+        <v>253</v>
+      </c>
+      <c r="E113" t="s">
+        <v>254</v>
+      </c>
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>1012192355</v>
+      </c>
+      <c r="D114" t="s">
+        <v>255</v>
+      </c>
+      <c r="E114" t="s">
+        <v>256</v>
+      </c>
+      <c r="F114" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>1802828653</v>
+      </c>
+      <c r="D115" t="s">
+        <v>257</v>
+      </c>
+      <c r="E115" t="s">
+        <v>258</v>
+      </c>
+      <c r="F115" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>1053207327</v>
+      </c>
+      <c r="D116" t="s">
+        <v>259</v>
+      </c>
+      <c r="E116" t="s">
+        <v>260</v>
+      </c>
+      <c r="F116" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>6678026189</v>
+      </c>
+      <c r="D117" t="s">
+        <v>261</v>
+      </c>
+      <c r="E117" t="s">
+        <v>262</v>
+      </c>
+      <c r="F117" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>846082143</v>
+      </c>
+      <c r="D118" t="s">
+        <v>263</v>
+      </c>
+      <c r="E118" t="s">
+        <v>264</v>
+      </c>
+      <c r="F118" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>5653507736</v>
+      </c>
+      <c r="D119" t="s">
+        <v>265</v>
+      </c>
+      <c r="E119" t="s">
+        <v>266</v>
+      </c>
+      <c r="F119" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>926635390</v>
+      </c>
+      <c r="C120" t="s">
+        <v>267</v>
+      </c>
+      <c r="D120" t="s">
+        <v>268</v>
+      </c>
+      <c r="E120" t="s">
+        <v>269</v>
+      </c>
+      <c r="F120" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>5563849696</v>
+      </c>
+      <c r="D121" t="s">
+        <v>270</v>
+      </c>
+      <c r="E121" t="s">
+        <v>271</v>
+      </c>
+      <c r="F121" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>1076543243</v>
+      </c>
+      <c r="D122" t="s">
+        <v>272</v>
+      </c>
+      <c r="E122" t="s">
+        <v>273</v>
+      </c>
+      <c r="F122" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>562735979</v>
+      </c>
+      <c r="D123" t="s">
+        <v>274</v>
+      </c>
+      <c r="E123" t="s">
+        <v>275</v>
+      </c>
+      <c r="F123" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>5208897600</v>
+      </c>
+      <c r="D124" t="s">
+        <v>276</v>
+      </c>
+      <c r="E124" t="s">
+        <v>277</v>
+      </c>
+      <c r="F124" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>6007132928</v>
+      </c>
+      <c r="D125" t="s">
+        <v>278</v>
+      </c>
+      <c r="E125" t="s">
+        <v>279</v>
+      </c>
+      <c r="F125" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>5446685449</v>
+      </c>
+      <c r="D126" t="s">
+        <v>280</v>
+      </c>
+      <c r="E126" t="s">
+        <v>281</v>
+      </c>
+      <c r="F126" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>1036805133</v>
+      </c>
+      <c r="D127" t="s">
+        <v>282</v>
+      </c>
+      <c r="E127" t="s">
+        <v>283</v>
+      </c>
+      <c r="F127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7473421288</v>
+      </c>
+      <c r="D128" t="s">
+        <v>284</v>
+      </c>
+      <c r="E128" t="s">
+        <v>285</v>
+      </c>
+      <c r="F128" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>1097694688</v>
+      </c>
+      <c r="D129" t="s">
+        <v>286</v>
+      </c>
+      <c r="E129" t="s">
+        <v>287</v>
+      </c>
+      <c r="F129" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>606625572</v>
+      </c>
+      <c r="D130" t="s">
+        <v>288</v>
+      </c>
+      <c r="E130" t="s">
+        <v>289</v>
+      </c>
+      <c r="F130" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>695082243</v>
+      </c>
+      <c r="D131" t="s">
+        <v>290</v>
+      </c>
+      <c r="E131" t="s">
+        <v>291</v>
+      </c>
+      <c r="F131" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>5288444945</v>
+      </c>
+      <c r="D132" t="s">
+        <v>292</v>
+      </c>
+      <c r="E132" t="s">
+        <v>293</v>
+      </c>
+      <c r="F132" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>1166220400</v>
+      </c>
+      <c r="D133" t="s">
+        <v>294</v>
+      </c>
+      <c r="E133" t="s">
+        <v>295</v>
+      </c>
+      <c r="F133" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>6793491362</v>
+      </c>
+      <c r="D134" t="s">
+        <v>296</v>
+      </c>
+      <c r="E134" t="s">
+        <v>297</v>
+      </c>
+      <c r="F134" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>1484063185</v>
+      </c>
+      <c r="C135" t="s">
+        <v>298</v>
+      </c>
+      <c r="D135" t="s">
+        <v>299</v>
+      </c>
+      <c r="E135" t="s">
+        <v>300</v>
+      </c>
+      <c r="F135" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>1357577489</v>
+      </c>
+      <c r="D136" t="s">
+        <v>301</v>
+      </c>
+      <c r="E136" t="s">
+        <v>302</v>
+      </c>
+      <c r="F136" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>5350127711</v>
+      </c>
+      <c r="D137" t="s">
+        <v>303</v>
+      </c>
+      <c r="E137" t="s">
+        <v>304</v>
+      </c>
+      <c r="F137" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>710955903</v>
+      </c>
+      <c r="D138" t="s">
+        <v>305</v>
+      </c>
+      <c r="E138" t="s">
+        <v>306</v>
+      </c>
+      <c r="F138" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>5367982177</v>
+      </c>
+      <c r="D139" t="s">
+        <v>307</v>
+      </c>
+      <c r="E139" t="s">
+        <v>308</v>
+      </c>
+      <c r="F139" t="s">
+        <v>9</v>
+      </c>
+      <c r="G139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>681041699</v>
+      </c>
+      <c r="D140" t="s">
+        <v>309</v>
+      </c>
+      <c r="E140" t="s">
+        <v>310</v>
+      </c>
+      <c r="F140" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>5682370815</v>
+      </c>
+      <c r="D141" t="s">
+        <v>311</v>
+      </c>
+      <c r="E141" t="s">
+        <v>312</v>
+      </c>
+      <c r="F141" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>5563849696</v>
+      </c>
+      <c r="D142" t="s">
+        <v>270</v>
+      </c>
+      <c r="E142" t="s">
+        <v>313</v>
+      </c>
+      <c r="F142" t="s">
+        <v>9</v>
+      </c>
+      <c r="G142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>1846276609</v>
+      </c>
+      <c r="D143" t="s">
+        <v>314</v>
+      </c>
+      <c r="E143" t="s">
+        <v>315</v>
+      </c>
+      <c r="F143" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>707077558</v>
+      </c>
+      <c r="D144" t="s">
+        <v>316</v>
+      </c>
+      <c r="E144" t="s">
+        <v>317</v>
+      </c>
+      <c r="F144" t="s">
+        <v>9</v>
+      </c>
+      <c r="G144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>775371050</v>
+      </c>
+      <c r="D145" t="s">
+        <v>318</v>
+      </c>
+      <c r="E145" t="s">
+        <v>319</v>
+      </c>
+      <c r="F145" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>6363795276</v>
+      </c>
+      <c r="D146" t="s">
+        <v>320</v>
+      </c>
+      <c r="E146" t="s">
+        <v>321</v>
+      </c>
+      <c r="F146" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>5973205369</v>
+      </c>
+      <c r="D147" t="s">
+        <v>322</v>
+      </c>
+      <c r="E147" t="s">
+        <v>323</v>
+      </c>
+      <c r="F147" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>1108776896</v>
+      </c>
+      <c r="D148" t="s">
+        <v>324</v>
+      </c>
+      <c r="E148" t="s">
+        <v>325</v>
+      </c>
+      <c r="F148" t="s">
+        <v>9</v>
+      </c>
+      <c r="G148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>1228442906</v>
+      </c>
+      <c r="D149" t="s">
+        <v>326</v>
+      </c>
+      <c r="E149" t="s">
+        <v>327</v>
+      </c>
+      <c r="F149" t="s">
+        <v>9</v>
+      </c>
+      <c r="G149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>432075572</v>
+      </c>
+      <c r="D150" t="s">
+        <v>328</v>
+      </c>
+      <c r="E150" t="s">
+        <v>329</v>
+      </c>
+      <c r="F150" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>308248964</v>
+      </c>
+      <c r="C151" t="s">
+        <v>330</v>
+      </c>
+      <c r="D151" t="s">
+        <v>331</v>
+      </c>
+      <c r="E151" t="s">
+        <v>332</v>
+      </c>
+      <c r="F151" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>5642314632</v>
+      </c>
+      <c r="D152" t="s">
+        <v>333</v>
+      </c>
+      <c r="E152" t="s">
+        <v>334</v>
+      </c>
+      <c r="F152" t="s">
+        <v>9</v>
+      </c>
+      <c r="G152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>828013632</v>
+      </c>
+      <c r="D153" t="s">
+        <v>335</v>
+      </c>
+      <c r="E153" t="s">
+        <v>336</v>
+      </c>
+      <c r="F153" t="s">
+        <v>9</v>
+      </c>
+      <c r="G153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>432075572</v>
+      </c>
+      <c r="D154" t="s">
+        <v>328</v>
+      </c>
+      <c r="E154" t="s">
+        <v>337</v>
+      </c>
+      <c r="F154" t="s">
+        <v>9</v>
+      </c>
+      <c r="G154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>813224193</v>
+      </c>
+      <c r="D155" t="s">
+        <v>338</v>
+      </c>
+      <c r="E155" t="s">
+        <v>339</v>
+      </c>
+      <c r="F155" t="s">
+        <v>9</v>
+      </c>
+      <c r="G155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>646719011</v>
+      </c>
+      <c r="D156" t="s">
+        <v>340</v>
+      </c>
+      <c r="E156" t="s">
+        <v>341</v>
+      </c>
+      <c r="F156" t="s">
+        <v>9</v>
+      </c>
+      <c r="G156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>1210619386</v>
+      </c>
+      <c r="C157" t="s">
+        <v>342</v>
+      </c>
+      <c r="D157" t="s">
+        <v>343</v>
+      </c>
+      <c r="E157" t="s">
+        <v>344</v>
+      </c>
+      <c r="F157" t="s">
+        <v>9</v>
+      </c>
+      <c r="G157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>276452321</v>
+      </c>
+      <c r="D158" t="s">
+        <v>345</v>
+      </c>
+      <c r="E158" t="s">
+        <v>346</v>
+      </c>
+      <c r="F158" t="s">
+        <v>9</v>
+      </c>
+      <c r="G158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>1879267726</v>
+      </c>
+      <c r="D159" t="s">
+        <v>347</v>
+      </c>
+      <c r="E159" t="s">
+        <v>348</v>
+      </c>
+      <c r="F159" t="s">
+        <v>9</v>
+      </c>
+      <c r="G159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>6883153979</v>
+      </c>
+      <c r="D160" t="s">
+        <v>349</v>
+      </c>
+      <c r="E160" t="s">
+        <v>350</v>
+      </c>
+      <c r="F160" t="s">
+        <v>9</v>
+      </c>
+      <c r="G160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>5530565927</v>
+      </c>
+      <c r="D161" t="s">
+        <v>351</v>
+      </c>
+      <c r="E161" t="s">
+        <v>352</v>
+      </c>
+      <c r="F161" t="s">
+        <v>9</v>
+      </c>
+      <c r="G161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>6763139875</v>
+      </c>
+      <c r="D162" t="s">
+        <v>353</v>
+      </c>
+      <c r="E162" t="s">
+        <v>354</v>
+      </c>
+      <c r="F162" t="s">
+        <v>9</v>
+      </c>
+      <c r="G162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>5440835359</v>
+      </c>
+      <c r="D163" t="s">
+        <v>355</v>
+      </c>
+      <c r="E163" t="s">
+        <v>356</v>
+      </c>
+      <c r="F163" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>6664724710</v>
+      </c>
+      <c r="D164" t="s">
+        <v>357</v>
+      </c>
+      <c r="E164" t="s">
+        <v>358</v>
+      </c>
+      <c r="F164" t="s">
+        <v>9</v>
+      </c>
+      <c r="G164" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>1000969589</v>
+      </c>
+      <c r="D165" t="s">
+        <v>359</v>
+      </c>
+      <c r="E165" t="s">
+        <v>360</v>
+      </c>
+      <c r="F165" t="s">
+        <v>9</v>
+      </c>
+      <c r="G165" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>926942807</v>
+      </c>
+      <c r="D166" t="s">
+        <v>361</v>
+      </c>
+      <c r="E166" t="s">
+        <v>362</v>
+      </c>
+      <c r="F166" t="s">
+        <v>9</v>
+      </c>
+      <c r="G166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>1402953311</v>
+      </c>
+      <c r="C167" t="s">
+        <v>363</v>
+      </c>
+      <c r="D167" t="s">
+        <v>364</v>
+      </c>
+      <c r="E167" t="s">
+        <v>365</v>
+      </c>
+      <c r="F167" t="s">
+        <v>9</v>
+      </c>
+      <c r="G167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>1754480422</v>
+      </c>
+      <c r="D168" t="s">
+        <v>366</v>
+      </c>
+      <c r="E168" t="s">
+        <v>367</v>
+      </c>
+      <c r="F168" t="s">
+        <v>9</v>
+      </c>
+      <c r="G168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>1257796988</v>
+      </c>
+      <c r="D169" t="s">
+        <v>368</v>
+      </c>
+      <c r="E169" t="s">
+        <v>369</v>
+      </c>
+      <c r="F169" t="s">
+        <v>9</v>
+      </c>
+      <c r="G169" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>904656952</v>
+      </c>
+      <c r="C170" t="s">
+        <v>370</v>
+      </c>
+      <c r="D170" t="s">
+        <v>371</v>
+      </c>
+      <c r="E170" t="s">
+        <v>372</v>
+      </c>
+      <c r="F170" t="s">
+        <v>9</v>
+      </c>
+      <c r="G170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>6810915168</v>
+      </c>
+      <c r="D171" t="s">
+        <v>373</v>
+      </c>
+      <c r="E171" t="s">
+        <v>374</v>
+      </c>
+      <c r="F171" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>6891243266</v>
+      </c>
+      <c r="D172" t="s">
+        <v>375</v>
+      </c>
+      <c r="E172" t="s">
+        <v>376</v>
+      </c>
+      <c r="F172" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>1032529522</v>
+      </c>
+      <c r="D173" t="s">
+        <v>377</v>
+      </c>
+      <c r="E173" t="s">
+        <v>378</v>
+      </c>
+      <c r="F173" t="s">
+        <v>9</v>
+      </c>
+      <c r="G173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>6578381683</v>
+      </c>
+      <c r="C174" t="s">
+        <v>379</v>
+      </c>
+      <c r="D174" t="s">
+        <v>380</v>
+      </c>
+      <c r="E174" t="s">
+        <v>381</v>
+      </c>
+      <c r="F174" t="s">
+        <v>9</v>
+      </c>
+      <c r="G174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>1022994305</v>
+      </c>
+      <c r="C175" t="s">
+        <v>382</v>
+      </c>
+      <c r="D175" t="s">
+        <v>383</v>
+      </c>
+      <c r="E175" t="s">
+        <v>384</v>
+      </c>
+      <c r="F175" t="s">
+        <v>9</v>
+      </c>
+      <c r="G175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>821284218</v>
+      </c>
+      <c r="D176" t="s">
+        <v>385</v>
+      </c>
+      <c r="E176" t="s">
+        <v>386</v>
+      </c>
+      <c r="F176" t="s">
+        <v>9</v>
+      </c>
+      <c r="G176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7009099732</v>
+      </c>
+      <c r="C177" t="s">
+        <v>387</v>
+      </c>
+      <c r="D177" t="s">
+        <v>388</v>
+      </c>
+      <c r="E177" t="s">
+        <v>389</v>
+      </c>
+      <c r="F177" t="s">
+        <v>9</v>
+      </c>
+      <c r="G177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7010497774</v>
+      </c>
+      <c r="D178" t="s">
+        <v>390</v>
+      </c>
+      <c r="E178" t="s">
+        <v>391</v>
+      </c>
+      <c r="F178" t="s">
+        <v>9</v>
+      </c>
+      <c r="G178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>786446117</v>
+      </c>
+      <c r="D179" t="s">
+        <v>392</v>
+      </c>
+      <c r="E179" t="s">
+        <v>393</v>
+      </c>
+      <c r="F179" t="s">
+        <v>9</v>
+      </c>
+      <c r="G179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>6558201204</v>
+      </c>
+      <c r="D180" t="s">
+        <v>394</v>
+      </c>
+      <c r="E180" t="s">
+        <v>395</v>
+      </c>
+      <c r="F180" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>6650009894</v>
+      </c>
+      <c r="D181" t="s">
+        <v>396</v>
+      </c>
+      <c r="E181" t="s">
+        <v>397</v>
+      </c>
+      <c r="F181" t="s">
+        <v>9</v>
+      </c>
+      <c r="G181" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>5223547508</v>
+      </c>
+      <c r="D182" t="s">
+        <v>398</v>
+      </c>
+      <c r="E182" t="s">
+        <v>399</v>
+      </c>
+      <c r="F182" t="s">
+        <v>9</v>
+      </c>
+      <c r="G182" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>1584946382</v>
+      </c>
+      <c r="D183" t="s">
+        <v>400</v>
+      </c>
+      <c r="E183" t="s">
+        <v>401</v>
+      </c>
+      <c r="F183" t="s">
+        <v>9</v>
+      </c>
+      <c r="G183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>1769606719</v>
+      </c>
+      <c r="D184" t="s">
+        <v>402</v>
+      </c>
+      <c r="E184" t="s">
+        <v>403</v>
+      </c>
+      <c r="F184" t="s">
+        <v>9</v>
+      </c>
+      <c r="G184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7075167623</v>
+      </c>
+      <c r="D185" t="s">
+        <v>404</v>
+      </c>
+      <c r="E185" t="s">
+        <v>405</v>
+      </c>
+      <c r="F185" t="s">
+        <v>9</v>
+      </c>
+      <c r="G185" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>1092449939</v>
+      </c>
+      <c r="D186" t="s">
+        <v>406</v>
+      </c>
+      <c r="E186" t="s">
+        <v>407</v>
+      </c>
+      <c r="F186" t="s">
+        <v>9</v>
+      </c>
+      <c r="G186" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>790154232</v>
+      </c>
+      <c r="C187" t="s">
+        <v>408</v>
+      </c>
+      <c r="D187" t="s">
+        <v>409</v>
+      </c>
+      <c r="E187" t="s">
+        <v>410</v>
+      </c>
+      <c r="F187" t="s">
+        <v>9</v>
+      </c>
+      <c r="G187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>823617801</v>
+      </c>
+      <c r="D188" t="s">
+        <v>411</v>
+      </c>
+      <c r="E188" t="s">
+        <v>412</v>
+      </c>
+      <c r="F188" t="s">
+        <v>9</v>
+      </c>
+      <c r="G188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>867784687</v>
+      </c>
+      <c r="C189" t="s">
+        <v>413</v>
+      </c>
+      <c r="D189" t="s">
+        <v>414</v>
+      </c>
+      <c r="E189" t="s">
+        <v>415</v>
+      </c>
+      <c r="F189" t="s">
+        <v>9</v>
+      </c>
+      <c r="G189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>481174241</v>
+      </c>
+      <c r="C190" t="s">
+        <v>416</v>
+      </c>
+      <c r="D190" t="s">
+        <v>417</v>
+      </c>
+      <c r="E190" t="s">
+        <v>418</v>
+      </c>
+      <c r="F190" t="s">
+        <v>9</v>
+      </c>
+      <c r="G190" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>5821323123</v>
+      </c>
+      <c r="D191" t="s">
+        <v>419</v>
+      </c>
+      <c r="E191" t="s">
+        <v>420</v>
+      </c>
+      <c r="F191" t="s">
+        <v>9</v>
+      </c>
+      <c r="G191" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>5580131679</v>
+      </c>
+      <c r="D192" t="s">
+        <v>421</v>
+      </c>
+      <c r="E192" t="s">
+        <v>422</v>
+      </c>
+      <c r="F192" t="s">
+        <v>9</v>
+      </c>
+      <c r="G192" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>6360141793</v>
+      </c>
+      <c r="D193" t="s">
+        <v>423</v>
+      </c>
+      <c r="E193" t="s">
+        <v>424</v>
+      </c>
+      <c r="F193" t="s">
+        <v>9</v>
+      </c>
+      <c r="G193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>1984418232</v>
+      </c>
+      <c r="D194" t="s">
+        <v>425</v>
+      </c>
+      <c r="E194" t="s">
+        <v>426</v>
+      </c>
+      <c r="F194" t="s">
+        <v>9</v>
+      </c>
+      <c r="G194" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>1472761544</v>
+      </c>
+      <c r="D195" t="s">
+        <v>427</v>
+      </c>
+      <c r="E195" t="s">
+        <v>428</v>
+      </c>
+      <c r="F195" t="s">
+        <v>9</v>
+      </c>
+      <c r="G195" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7294345691</v>
+      </c>
+      <c r="D196" t="s">
+        <v>429</v>
+      </c>
+      <c r="E196" t="s">
+        <v>430</v>
+      </c>
+      <c r="F196" t="s">
+        <v>9</v>
+      </c>
+      <c r="G196" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>6950988007</v>
+      </c>
+      <c r="D197" t="s">
+        <v>431</v>
+      </c>
+      <c r="E197" t="s">
+        <v>432</v>
+      </c>
+      <c r="F197" t="s">
+        <v>9</v>
+      </c>
+      <c r="G197" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>1964017141</v>
+      </c>
+      <c r="D198" t="s">
+        <v>433</v>
+      </c>
+      <c r="E198" t="s">
+        <v>434</v>
+      </c>
+      <c r="F198" t="s">
+        <v>9</v>
+      </c>
+      <c r="G198" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>1839677070</v>
+      </c>
+      <c r="D199" t="s">
+        <v>435</v>
+      </c>
+      <c r="E199" t="s">
+        <v>436</v>
+      </c>
+      <c r="F199" t="s">
+        <v>9</v>
+      </c>
+      <c r="G199" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>497285870</v>
+      </c>
+      <c r="C200" t="s">
+        <v>437</v>
+      </c>
+      <c r="D200" t="s">
+        <v>438</v>
+      </c>
+      <c r="E200" t="s">
+        <v>439</v>
+      </c>
+      <c r="F200" t="s">
+        <v>9</v>
+      </c>
+      <c r="G200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>1025992353</v>
+      </c>
+      <c r="D201" t="s">
+        <v>440</v>
+      </c>
+      <c r="E201" t="s">
+        <v>441</v>
+      </c>
+      <c r="F201" t="s">
+        <v>9</v>
+      </c>
+      <c r="G201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>1832440095</v>
+      </c>
+      <c r="C202" t="s">
+        <v>442</v>
+      </c>
+      <c r="D202" t="s">
+        <v>443</v>
+      </c>
+      <c r="E202" t="s">
+        <v>444</v>
+      </c>
+      <c r="F202" t="s">
+        <v>9</v>
+      </c>
+      <c r="G202" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>1213469005</v>
+      </c>
+      <c r="C203" t="s">
+        <v>445</v>
+      </c>
+      <c r="D203" t="s">
+        <v>446</v>
+      </c>
+      <c r="E203" t="s">
+        <v>447</v>
+      </c>
+      <c r="F203" t="s">
+        <v>9</v>
+      </c>
+      <c r="G203" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>1063353357</v>
+      </c>
+      <c r="D204" t="s">
+        <v>448</v>
+      </c>
+      <c r="E204" t="s">
+        <v>449</v>
+      </c>
+      <c r="F204" t="s">
+        <v>9</v>
+      </c>
+      <c r="G204" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>6223639884</v>
+      </c>
+      <c r="D205" t="s">
+        <v>450</v>
+      </c>
+      <c r="E205" t="s">
+        <v>451</v>
+      </c>
+      <c r="F205" t="s">
+        <v>9</v>
+      </c>
+      <c r="G205" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>878200041</v>
+      </c>
+      <c r="D206" t="s">
+        <v>452</v>
+      </c>
+      <c r="E206" t="s">
+        <v>453</v>
+      </c>
+      <c r="F206" t="s">
+        <v>9</v>
+      </c>
+      <c r="G206" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>833666553</v>
+      </c>
+      <c r="D207" t="s">
+        <v>454</v>
+      </c>
+      <c r="E207" t="s">
+        <v>455</v>
+      </c>
+      <c r="F207" t="s">
+        <v>9</v>
+      </c>
+      <c r="G207" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>1464649733</v>
+      </c>
+      <c r="D208" t="s">
+        <v>456</v>
+      </c>
+      <c r="E208" t="s">
+        <v>457</v>
+      </c>
+      <c r="F208" t="s">
+        <v>9</v>
+      </c>
+      <c r="G208" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>1226877056</v>
+      </c>
+      <c r="D209" t="s">
+        <v>458</v>
+      </c>
+      <c r="E209" t="s">
+        <v>459</v>
+      </c>
+      <c r="F209" t="s">
+        <v>9</v>
+      </c>
+      <c r="G209" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>737282873</v>
+      </c>
+      <c r="D210" t="s">
+        <v>460</v>
+      </c>
+      <c r="E210" t="s">
+        <v>461</v>
+      </c>
+      <c r="F210" t="s">
+        <v>9</v>
+      </c>
+      <c r="G210" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>875640078</v>
+      </c>
+      <c r="C211" t="s">
+        <v>462</v>
+      </c>
+      <c r="D211" t="s">
+        <v>463</v>
+      </c>
+      <c r="E211" t="s">
+        <v>464</v>
+      </c>
+      <c r="F211" t="s">
+        <v>9</v>
+      </c>
+      <c r="G211" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>578575436</v>
+      </c>
+      <c r="C212" t="s">
+        <v>465</v>
+      </c>
+      <c r="D212" t="s">
+        <v>466</v>
+      </c>
+      <c r="E212" t="s">
+        <v>467</v>
+      </c>
+      <c r="F212" t="s">
+        <v>9</v>
+      </c>
+      <c r="G212" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>5534192631</v>
+      </c>
+      <c r="C213" t="s">
+        <v>468</v>
+      </c>
+      <c r="D213" t="s">
+        <v>469</v>
+      </c>
+      <c r="E213" t="s">
+        <v>470</v>
+      </c>
+      <c r="F213" t="s">
+        <v>9</v>
+      </c>
+      <c r="G213" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>5439858867</v>
+      </c>
+      <c r="D214" t="s">
+        <v>471</v>
+      </c>
+      <c r="E214" t="s">
+        <v>472</v>
+      </c>
+      <c r="F214" t="s">
+        <v>9</v>
+      </c>
+      <c r="G214" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>1167349500</v>
+      </c>
+      <c r="D215" t="s">
+        <v>473</v>
+      </c>
+      <c r="E215" t="s">
+        <v>474</v>
+      </c>
+      <c r="F215" t="s">
+        <v>9</v>
+      </c>
+      <c r="G215" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>5113473035</v>
+      </c>
+      <c r="D216" t="s">
+        <v>475</v>
+      </c>
+      <c r="E216" t="s">
+        <v>476</v>
+      </c>
+      <c r="F216" t="s">
+        <v>9</v>
+      </c>
+      <c r="G216" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>5439858867</v>
+      </c>
+      <c r="D217" t="s">
+        <v>471</v>
+      </c>
+      <c r="E217" t="s">
+        <v>477</v>
+      </c>
+      <c r="F217" t="s">
+        <v>9</v>
+      </c>
+      <c r="G217" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>664305534</v>
+      </c>
+      <c r="D218" t="s">
+        <v>478</v>
+      </c>
+      <c r="E218" t="s">
+        <v>479</v>
+      </c>
+      <c r="F218" t="s">
+        <v>9</v>
+      </c>
+      <c r="G218" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>1095207248</v>
+      </c>
+      <c r="D219" t="s">
+        <v>480</v>
+      </c>
+      <c r="E219" t="s">
+        <v>481</v>
+      </c>
+      <c r="F219" t="s">
+        <v>9</v>
+      </c>
+      <c r="G219" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>452169267</v>
+      </c>
+      <c r="D220" t="s">
+        <v>482</v>
+      </c>
+      <c r="E220" t="s">
+        <v>483</v>
+      </c>
+      <c r="F220" t="s">
+        <v>9</v>
+      </c>
+      <c r="G220" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>6186384445</v>
+      </c>
+      <c r="D221" t="s">
+        <v>484</v>
+      </c>
+      <c r="E221" t="s">
+        <v>485</v>
+      </c>
+      <c r="F221" t="s">
+        <v>9</v>
+      </c>
+      <c r="G221" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>954835072</v>
+      </c>
+      <c r="D222" t="s">
+        <v>486</v>
+      </c>
+      <c r="E222" t="s">
+        <v>487</v>
+      </c>
+      <c r="F222" t="s">
+        <v>9</v>
+      </c>
+      <c r="G222" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>983403249</v>
+      </c>
+      <c r="D223" t="s">
+        <v>488</v>
+      </c>
+      <c r="E223" t="s">
+        <v>489</v>
+      </c>
+      <c r="F223" t="s">
+        <v>9</v>
+      </c>
+      <c r="G223" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>565532582</v>
+      </c>
+      <c r="D224" t="s">
+        <v>490</v>
+      </c>
+      <c r="E224" t="s">
+        <v>491</v>
+      </c>
+      <c r="F224" t="s">
+        <v>9</v>
+      </c>
+      <c r="G224" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>1022459656</v>
+      </c>
+      <c r="C225" t="s">
+        <v>492</v>
+      </c>
+      <c r="D225" t="s">
+        <v>493</v>
+      </c>
+      <c r="E225" t="s">
+        <v>494</v>
+      </c>
+      <c r="F225" t="s">
+        <v>9</v>
+      </c>
+      <c r="G225" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>967906148</v>
+      </c>
+      <c r="D226" t="s">
+        <v>495</v>
+      </c>
+      <c r="E226" t="s">
+        <v>496</v>
+      </c>
+      <c r="F226" t="s">
+        <v>9</v>
+      </c>
+      <c r="G226" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>5279807100</v>
+      </c>
+      <c r="D227" t="s">
+        <v>497</v>
+      </c>
+      <c r="E227" t="s">
+        <v>498</v>
+      </c>
+      <c r="F227" t="s">
+        <v>9</v>
+      </c>
+      <c r="G227" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>5170811471</v>
+      </c>
+      <c r="D228" t="s">
+        <v>499</v>
+      </c>
+      <c r="E228" t="s">
+        <v>500</v>
+      </c>
+      <c r="F228" t="s">
+        <v>9</v>
+      </c>
+      <c r="G228" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>5056738019</v>
+      </c>
+      <c r="D229" t="s">
+        <v>501</v>
+      </c>
+      <c r="E229" t="s">
+        <v>502</v>
+      </c>
+      <c r="F229" t="s">
+        <v>9</v>
+      </c>
+      <c r="G229" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>425565419</v>
+      </c>
+      <c r="D230" t="s">
+        <v>503</v>
+      </c>
+      <c r="E230" t="s">
+        <v>504</v>
+      </c>
+      <c r="F230" t="s">
+        <v>9</v>
+      </c>
+      <c r="G230" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>525920735</v>
+      </c>
+      <c r="D231" t="s">
+        <v>505</v>
+      </c>
+      <c r="E231" t="s">
+        <v>506</v>
+      </c>
+      <c r="F231" t="s">
+        <v>9</v>
+      </c>
+      <c r="G231" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>795209221</v>
+      </c>
+      <c r="D232" t="s">
+        <v>507</v>
+      </c>
+      <c r="E232" t="s">
+        <v>508</v>
+      </c>
+      <c r="F232" t="s">
+        <v>9</v>
+      </c>
+      <c r="G232" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>2059906603</v>
+      </c>
+      <c r="D233" t="s">
+        <v>509</v>
+      </c>
+      <c r="E233" t="s">
+        <v>510</v>
+      </c>
+      <c r="F233" t="s">
+        <v>9</v>
+      </c>
+      <c r="G233" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>5556670508</v>
+      </c>
+      <c r="D234" t="s">
+        <v>511</v>
+      </c>
+      <c r="E234" t="s">
+        <v>512</v>
+      </c>
+      <c r="F234" t="s">
+        <v>9</v>
+      </c>
+      <c r="G234" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>328329682</v>
+      </c>
+      <c r="C235" t="s">
+        <v>513</v>
+      </c>
+      <c r="D235" t="s">
+        <v>514</v>
+      </c>
+      <c r="E235" t="s">
+        <v>515</v>
+      </c>
+      <c r="F235" t="s">
+        <v>9</v>
+      </c>
+      <c r="G235" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>1799897998</v>
+      </c>
+      <c r="D236" t="s">
+        <v>516</v>
+      </c>
+      <c r="E236" t="s">
+        <v>517</v>
+      </c>
+      <c r="F236" t="s">
+        <v>9</v>
+      </c>
+      <c r="G236" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>5356433759</v>
+      </c>
+      <c r="D237" t="s">
+        <v>518</v>
+      </c>
+      <c r="E237" t="s">
+        <v>519</v>
+      </c>
+      <c r="F237" t="s">
+        <v>9</v>
+      </c>
+      <c r="G237" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>854403259</v>
+      </c>
+      <c r="D238" t="s">
+        <v>520</v>
+      </c>
+      <c r="E238" t="s">
+        <v>521</v>
+      </c>
+      <c r="F238" t="s">
+        <v>9</v>
+      </c>
+      <c r="G238" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>794529644</v>
+      </c>
+      <c r="D239" t="s">
+        <v>522</v>
+      </c>
+      <c r="E239" t="s">
+        <v>523</v>
+      </c>
+      <c r="F239" t="s">
+        <v>9</v>
+      </c>
+      <c r="G239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>676170169</v>
+      </c>
+      <c r="C240" t="s">
+        <v>524</v>
+      </c>
+      <c r="D240" t="s">
+        <v>525</v>
+      </c>
+      <c r="E240" t="s">
+        <v>526</v>
+      </c>
+      <c r="F240" t="s">
+        <v>9</v>
+      </c>
+      <c r="G240" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>974374541</v>
+      </c>
+      <c r="C241" t="s">
+        <v>527</v>
+      </c>
+      <c r="D241" t="s">
+        <v>528</v>
+      </c>
+      <c r="E241" t="s">
+        <v>529</v>
+      </c>
+      <c r="F241" t="s">
+        <v>9</v>
+      </c>
+      <c r="G241" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>511549132</v>
+      </c>
+      <c r="D242" t="s">
+        <v>530</v>
+      </c>
+      <c r="E242" t="s">
+        <v>531</v>
+      </c>
+      <c r="F242" t="s">
+        <v>9</v>
+      </c>
+      <c r="G242" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>7090297953</v>
+      </c>
+      <c r="D243" t="s">
+        <v>532</v>
+      </c>
+      <c r="E243" t="s">
+        <v>533</v>
+      </c>
+      <c r="F243" t="s">
+        <v>9</v>
+      </c>
+      <c r="G243" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>5157277697</v>
+      </c>
+      <c r="D244" t="s">
+        <v>534</v>
+      </c>
+      <c r="E244" t="s">
+        <v>535</v>
+      </c>
+      <c r="F244" t="s">
+        <v>9</v>
+      </c>
+      <c r="G244" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>1226032352</v>
+      </c>
+      <c r="D245" t="s">
+        <v>536</v>
+      </c>
+      <c r="E245" t="s">
+        <v>537</v>
+      </c>
+      <c r="F245" t="s">
+        <v>9</v>
+      </c>
+      <c r="G245" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>1227431915</v>
+      </c>
+      <c r="D246" t="s">
+        <v>538</v>
+      </c>
+      <c r="E246" t="s">
+        <v>539</v>
+      </c>
+      <c r="F246" t="s">
+        <v>9</v>
+      </c>
+      <c r="G246" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>5022987829</v>
+      </c>
+      <c r="D247" t="s">
+        <v>540</v>
+      </c>
+      <c r="E247" t="s">
+        <v>541</v>
+      </c>
+      <c r="F247" t="s">
+        <v>9</v>
+      </c>
+      <c r="G247" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>395401339</v>
+      </c>
+      <c r="C248" t="s">
+        <v>542</v>
+      </c>
+      <c r="D248" t="s">
+        <v>543</v>
+      </c>
+      <c r="E248" t="s">
+        <v>544</v>
+      </c>
+      <c r="F248" t="s">
+        <v>9</v>
+      </c>
+      <c r="G248" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>1936635514</v>
+      </c>
+      <c r="C249" t="s">
+        <v>545</v>
+      </c>
+      <c r="D249" t="s">
+        <v>546</v>
+      </c>
+      <c r="E249" t="s">
+        <v>547</v>
+      </c>
+      <c r="F249" t="s">
+        <v>9</v>
+      </c>
+      <c r="G249" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>7376440233</v>
+      </c>
+      <c r="D250" t="s">
+        <v>548</v>
+      </c>
+      <c r="E250" t="s">
+        <v>549</v>
+      </c>
+      <c r="F250" t="s">
+        <v>9</v>
+      </c>
+      <c r="G250" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>908810739</v>
+      </c>
+      <c r="D251" t="s">
+        <v>550</v>
+      </c>
+      <c r="E251" t="s">
+        <v>551</v>
+      </c>
+      <c r="F251" t="s">
+        <v>9</v>
+      </c>
+      <c r="G251" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>1213589243</v>
+      </c>
+      <c r="C252" t="s">
+        <v>552</v>
+      </c>
+      <c r="D252" t="s">
+        <v>553</v>
+      </c>
+      <c r="E252" t="s">
+        <v>554</v>
+      </c>
+      <c r="F252" t="s">
+        <v>9</v>
+      </c>
+      <c r="G252" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>5140879658</v>
+      </c>
+      <c r="D253" t="s">
+        <v>555</v>
+      </c>
+      <c r="E253" t="s">
+        <v>556</v>
+      </c>
+      <c r="F253" t="s">
+        <v>9</v>
+      </c>
+      <c r="G253" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>1051978256</v>
+      </c>
+      <c r="C254" t="s">
+        <v>557</v>
+      </c>
+      <c r="D254" t="s">
+        <v>558</v>
+      </c>
+      <c r="E254" t="s">
+        <v>559</v>
+      </c>
+      <c r="F254" t="s">
+        <v>9</v>
+      </c>
+      <c r="G254" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>801550531</v>
+      </c>
+      <c r="C255" t="s">
+        <v>560</v>
+      </c>
+      <c r="D255" t="s">
+        <v>561</v>
+      </c>
+      <c r="E255" t="s">
+        <v>562</v>
+      </c>
+      <c r="F255" t="s">
+        <v>9</v>
+      </c>
+      <c r="G255" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>1013537403</v>
+      </c>
+      <c r="D256" t="s">
+        <v>563</v>
+      </c>
+      <c r="E256" t="s">
+        <v>564</v>
+      </c>
+      <c r="F256" t="s">
+        <v>9</v>
+      </c>
+      <c r="G256" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>1646141773</v>
+      </c>
+      <c r="C257" t="s">
+        <v>565</v>
+      </c>
+      <c r="D257" t="s">
+        <v>566</v>
+      </c>
+      <c r="E257" t="s">
+        <v>567</v>
+      </c>
+      <c r="F257" t="s">
+        <v>9</v>
+      </c>
+      <c r="G257" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>1140247234</v>
+      </c>
+      <c r="D258" t="s">
+        <v>568</v>
+      </c>
+      <c r="E258" t="s">
+        <v>569</v>
+      </c>
+      <c r="F258" t="s">
+        <v>9</v>
+      </c>
+      <c r="G258" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>836371761</v>
+      </c>
+      <c r="D259" t="s">
+        <v>570</v>
+      </c>
+      <c r="E259" t="s">
+        <v>571</v>
+      </c>
+      <c r="F259" t="s">
+        <v>9</v>
+      </c>
+      <c r="G259" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>609629599</v>
+      </c>
+      <c r="C260" t="s">
+        <v>572</v>
+      </c>
+      <c r="D260" t="s">
+        <v>573</v>
+      </c>
+      <c r="E260" t="s">
+        <v>574</v>
+      </c>
+      <c r="F260" t="s">
+        <v>9</v>
+      </c>
+      <c r="G260" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>1153483419</v>
+      </c>
+      <c r="D261" t="s">
+        <v>575</v>
+      </c>
+      <c r="E261" t="s">
+        <v>576</v>
+      </c>
+      <c r="F261" t="s">
+        <v>9</v>
+      </c>
+      <c r="G261" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>1876875542</v>
+      </c>
+      <c r="D262" t="s">
+        <v>577</v>
+      </c>
+      <c r="E262" t="s">
+        <v>578</v>
+      </c>
+      <c r="F262" t="s">
+        <v>9</v>
+      </c>
+      <c r="G262" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>513762096</v>
+      </c>
+      <c r="D263" t="s">
+        <v>579</v>
+      </c>
+      <c r="E263" t="s">
+        <v>580</v>
+      </c>
+      <c r="F263" t="s">
+        <v>9</v>
+      </c>
+      <c r="G263" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>1002057416</v>
+      </c>
+      <c r="D264" t="s">
+        <v>581</v>
+      </c>
+      <c r="E264" t="s">
+        <v>582</v>
+      </c>
+      <c r="F264" t="s">
+        <v>9</v>
+      </c>
+      <c r="G264" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>6914625834</v>
+      </c>
+      <c r="D265" t="s">
+        <v>583</v>
+      </c>
+      <c r="E265" t="s">
+        <v>584</v>
+      </c>
+      <c r="F265" t="s">
+        <v>9</v>
+      </c>
+      <c r="G265" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>848932986</v>
+      </c>
+      <c r="D266" t="s">
+        <v>585</v>
+      </c>
+      <c r="E266" t="s">
+        <v>586</v>
+      </c>
+      <c r="F266" t="s">
+        <v>9</v>
+      </c>
+      <c r="G266" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>1061791216</v>
+      </c>
+      <c r="D267" t="s">
+        <v>587</v>
+      </c>
+      <c r="E267" t="s">
+        <v>588</v>
+      </c>
+      <c r="F267" t="s">
+        <v>9</v>
+      </c>
+      <c r="G267" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>992072180</v>
+      </c>
+      <c r="D268" t="s">
+        <v>589</v>
+      </c>
+      <c r="E268" t="s">
+        <v>590</v>
+      </c>
+      <c r="F268" t="s">
+        <v>9</v>
+      </c>
+      <c r="G268" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>1021381174</v>
+      </c>
+      <c r="D269" t="s">
+        <v>591</v>
+      </c>
+      <c r="E269" t="s">
+        <v>592</v>
+      </c>
+      <c r="F269" t="s">
+        <v>9</v>
+      </c>
+      <c r="G269" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>1975348103</v>
+      </c>
+      <c r="D270" t="s">
+        <v>593</v>
+      </c>
+      <c r="E270" t="s">
+        <v>594</v>
+      </c>
+      <c r="F270" t="s">
+        <v>9</v>
+      </c>
+      <c r="G270" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>6353630443</v>
+      </c>
+      <c r="D271" t="s">
+        <v>595</v>
+      </c>
+      <c r="E271" t="s">
+        <v>596</v>
+      </c>
+      <c r="F271" t="s">
+        <v>9</v>
+      </c>
+      <c r="G271" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>899811206</v>
+      </c>
+      <c r="D272" t="s">
+        <v>597</v>
+      </c>
+      <c r="E272" t="s">
+        <v>598</v>
+      </c>
+      <c r="F272" t="s">
+        <v>9</v>
+      </c>
+      <c r="G272" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>1212586071</v>
+      </c>
+      <c r="D273" t="s">
+        <v>599</v>
+      </c>
+      <c r="E273" t="s">
+        <v>600</v>
+      </c>
+      <c r="F273" t="s">
+        <v>9</v>
+      </c>
+      <c r="G273" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>648967956</v>
+      </c>
+      <c r="D274" t="s">
+        <v>601</v>
+      </c>
+      <c r="E274" t="s">
+        <v>602</v>
+      </c>
+      <c r="F274" t="s">
+        <v>9</v>
+      </c>
+      <c r="G274" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7848468511</v>
+      </c>
+      <c r="D275" t="s">
+        <v>603</v>
+      </c>
+      <c r="E275" t="s">
+        <v>604</v>
+      </c>
+      <c r="F275" t="s">
+        <v>9</v>
+      </c>
+      <c r="G275" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>1471495686</v>
+      </c>
+      <c r="D276" t="s">
+        <v>605</v>
+      </c>
+      <c r="E276" t="s">
+        <v>606</v>
+      </c>
+      <c r="F276" t="s">
+        <v>9</v>
+      </c>
+      <c r="G276" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>1013717914</v>
+      </c>
+      <c r="D277" t="s">
+        <v>607</v>
+      </c>
+      <c r="E277" t="s">
+        <v>608</v>
+      </c>
+      <c r="F277" t="s">
+        <v>9</v>
+      </c>
+      <c r="G277" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>5393973611</v>
+      </c>
+      <c r="C278" t="s">
+        <v>609</v>
+      </c>
+      <c r="D278" t="s">
+        <v>610</v>
+      </c>
+      <c r="E278" t="s">
+        <v>611</v>
+      </c>
+      <c r="F278" t="s">
+        <v>9</v>
+      </c>
+      <c r="G278" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>410545074</v>
+      </c>
+      <c r="D279" t="s">
+        <v>612</v>
+      </c>
+      <c r="E279" t="s">
+        <v>613</v>
+      </c>
+      <c r="F279" t="s">
+        <v>9</v>
+      </c>
+      <c r="G279" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>456050710</v>
+      </c>
+      <c r="C280" t="s">
+        <v>614</v>
+      </c>
+      <c r="D280" t="s">
+        <v>615</v>
+      </c>
+      <c r="E280" t="s">
+        <v>616</v>
+      </c>
+      <c r="F280" t="s">
+        <v>9</v>
+      </c>
+      <c r="G280" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>6058642054</v>
+      </c>
+      <c r="D281" t="s">
+        <v>617</v>
+      </c>
+      <c r="E281" t="s">
+        <v>618</v>
+      </c>
+      <c r="F281" t="s">
+        <v>9</v>
+      </c>
+      <c r="G281" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>6706905809</v>
+      </c>
+      <c r="C282" t="s">
+        <v>619</v>
+      </c>
+      <c r="D282" t="s">
+        <v>620</v>
+      </c>
+      <c r="E282" t="s">
+        <v>621</v>
+      </c>
+      <c r="F282" t="s">
+        <v>9</v>
+      </c>
+      <c r="G282" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7280982105</v>
+      </c>
+      <c r="D283" t="s">
+        <v>622</v>
+      </c>
+      <c r="E283" t="s">
+        <v>623</v>
+      </c>
+      <c r="F283" t="s">
+        <v>9</v>
+      </c>
+      <c r="G283" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>6786710431</v>
+      </c>
+      <c r="D284" t="s">
+        <v>624</v>
+      </c>
+      <c r="E284" t="s">
+        <v>625</v>
+      </c>
+      <c r="F284" t="s">
+        <v>9</v>
+      </c>
+      <c r="G284" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>807253209</v>
+      </c>
+      <c r="D285" t="s">
+        <v>626</v>
+      </c>
+      <c r="E285" t="s">
+        <v>627</v>
+      </c>
+      <c r="F285" t="s">
+        <v>9</v>
+      </c>
+      <c r="G285" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>1049419247</v>
+      </c>
+      <c r="C286" t="s">
+        <v>628</v>
+      </c>
+      <c r="D286" t="s">
+        <v>629</v>
+      </c>
+      <c r="E286" t="s">
+        <v>630</v>
+      </c>
+      <c r="F286" t="s">
+        <v>9</v>
+      </c>
+      <c r="G286" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>6157800160</v>
+      </c>
+      <c r="D287" t="s">
+        <v>631</v>
+      </c>
+      <c r="E287" t="s">
+        <v>632</v>
+      </c>
+      <c r="F287" t="s">
+        <v>9</v>
+      </c>
+      <c r="G287" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>6069845008</v>
+      </c>
+      <c r="D288" t="s">
+        <v>633</v>
+      </c>
+      <c r="E288" t="s">
+        <v>634</v>
+      </c>
+      <c r="F288" t="s">
+        <v>9</v>
+      </c>
+      <c r="G288" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>6757055591</v>
+      </c>
+      <c r="D289" t="s">
+        <v>635</v>
+      </c>
+      <c r="E289" t="s">
+        <v>636</v>
+      </c>
+      <c r="F289" t="s">
+        <v>9</v>
+      </c>
+      <c r="G289" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>819332494</v>
+      </c>
+      <c r="D290" t="s">
+        <v>29</v>
+      </c>
+      <c r="E290" t="s">
+        <v>637</v>
+      </c>
+      <c r="F290" t="s">
+        <v>9</v>
+      </c>
+      <c r="G290" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>6899105938</v>
+      </c>
+      <c r="D291" t="s">
+        <v>638</v>
+      </c>
+      <c r="E291" t="s">
+        <v>639</v>
+      </c>
+      <c r="F291" t="s">
+        <v>9</v>
+      </c>
+      <c r="G291" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>1490179663</v>
+      </c>
+      <c r="D292" t="s">
+        <v>640</v>
+      </c>
+      <c r="E292" t="s">
+        <v>641</v>
+      </c>
+      <c r="F292" t="s">
+        <v>9</v>
+      </c>
+      <c r="G292" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>480432955</v>
+      </c>
+      <c r="D293" t="s">
+        <v>642</v>
+      </c>
+      <c r="E293" t="s">
+        <v>643</v>
+      </c>
+      <c r="F293" t="s">
+        <v>9</v>
+      </c>
+      <c r="G293" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>1351520590</v>
+      </c>
+      <c r="C294" t="s">
+        <v>644</v>
+      </c>
+      <c r="D294" t="s">
+        <v>645</v>
+      </c>
+      <c r="E294" t="s">
+        <v>646</v>
+      </c>
+      <c r="F294" t="s">
+        <v>9</v>
+      </c>
+      <c r="G294" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>609964060</v>
+      </c>
+      <c r="D295" t="s">
+        <v>647</v>
+      </c>
+      <c r="E295" t="s">
+        <v>648</v>
+      </c>
+      <c r="F295" t="s">
+        <v>9</v>
+      </c>
+      <c r="G295" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>528614187</v>
+      </c>
+      <c r="C296" t="s">
+        <v>649</v>
+      </c>
+      <c r="D296" t="s">
+        <v>650</v>
+      </c>
+      <c r="E296" t="s">
+        <v>651</v>
+      </c>
+      <c r="F296" t="s">
+        <v>9</v>
+      </c>
+      <c r="G296" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>237277096</v>
+      </c>
+      <c r="D297" t="s">
+        <v>652</v>
+      </c>
+      <c r="E297" t="s">
+        <v>653</v>
+      </c>
+      <c r="F297" t="s">
+        <v>9</v>
+      </c>
+      <c r="G297" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>5541102389</v>
+      </c>
+      <c r="D298" t="s">
+        <v>654</v>
+      </c>
+      <c r="E298" t="s">
+        <v>655</v>
+      </c>
+      <c r="F298" t="s">
+        <v>9</v>
+      </c>
+      <c r="G298" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>1280629247</v>
+      </c>
+      <c r="C299" t="s">
+        <v>656</v>
+      </c>
+      <c r="D299" t="s">
+        <v>657</v>
+      </c>
+      <c r="E299" t="s">
+        <v>658</v>
+      </c>
+      <c r="F299" t="s">
+        <v>9</v>
+      </c>
+      <c r="G299" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>5409094200</v>
+      </c>
+      <c r="C300" t="s">
+        <v>659</v>
+      </c>
+      <c r="D300" t="s">
+        <v>660</v>
+      </c>
+      <c r="E300" t="s">
+        <v>661</v>
+      </c>
+      <c r="F300" t="s">
+        <v>9</v>
+      </c>
+      <c r="G300" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>1958057054</v>
+      </c>
+      <c r="D301" t="s">
+        <v>662</v>
+      </c>
+      <c r="E301" t="s">
+        <v>663</v>
+      </c>
+      <c r="F301" t="s">
+        <v>9</v>
+      </c>
+      <c r="G301" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>5836221100</v>
+      </c>
+      <c r="D302" t="s">
+        <v>664</v>
+      </c>
+      <c r="E302" t="s">
+        <v>665</v>
+      </c>
+      <c r="F302" t="s">
+        <v>9</v>
+      </c>
+      <c r="G302" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>860050419</v>
+      </c>
+      <c r="D303" t="s">
+        <v>666</v>
+      </c>
+      <c r="E303" t="s">
+        <v>667</v>
+      </c>
+      <c r="F303" t="s">
+        <v>9</v>
+      </c>
+      <c r="G303" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>1133080961</v>
+      </c>
+      <c r="D304" t="s">
+        <v>668</v>
+      </c>
+      <c r="E304" t="s">
+        <v>669</v>
+      </c>
+      <c r="F304" t="s">
+        <v>9</v>
+      </c>
+      <c r="G304" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>1520988303</v>
+      </c>
+      <c r="D305" t="s">
+        <v>670</v>
+      </c>
+      <c r="E305" t="s">
+        <v>671</v>
+      </c>
+      <c r="F305" t="s">
+        <v>9</v>
+      </c>
+      <c r="G305" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>860817018</v>
+      </c>
+      <c r="D306" t="s">
+        <v>672</v>
+      </c>
+      <c r="E306" t="s">
+        <v>673</v>
+      </c>
+      <c r="F306" t="s">
+        <v>9</v>
+      </c>
+      <c r="G306" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>1297161051</v>
+      </c>
+      <c r="C307" t="s">
+        <v>674</v>
+      </c>
+      <c r="D307" t="s">
+        <v>675</v>
+      </c>
+      <c r="E307" t="s">
+        <v>676</v>
+      </c>
+      <c r="F307" t="s">
+        <v>9</v>
+      </c>
+      <c r="G307" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>1376203049</v>
+      </c>
+      <c r="D308" t="s">
+        <v>677</v>
+      </c>
+      <c r="E308" t="s">
+        <v>678</v>
+      </c>
+      <c r="F308" t="s">
+        <v>9</v>
+      </c>
+      <c r="G308" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>1546700028</v>
+      </c>
+      <c r="D309" t="s">
+        <v>679</v>
+      </c>
+      <c r="E309" t="s">
+        <v>680</v>
+      </c>
+      <c r="F309" t="s">
+        <v>9</v>
+      </c>
+      <c r="G309" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>5008868889</v>
+      </c>
+      <c r="D310" t="s">
+        <v>681</v>
+      </c>
+      <c r="E310" t="s">
+        <v>682</v>
+      </c>
+      <c r="F310" t="s">
+        <v>9</v>
+      </c>
+      <c r="G310" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>1178691024</v>
+      </c>
+      <c r="D311" t="s">
+        <v>683</v>
+      </c>
+      <c r="E311" t="s">
+        <v>684</v>
+      </c>
+      <c r="F311" t="s">
+        <v>9</v>
+      </c>
+      <c r="G311" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>6445939104</v>
+      </c>
+      <c r="C312" t="s">
+        <v>685</v>
+      </c>
+      <c r="D312" t="s">
+        <v>686</v>
+      </c>
+      <c r="E312" t="s">
+        <v>687</v>
+      </c>
+      <c r="F312" t="s">
+        <v>9</v>
+      </c>
+      <c r="G312" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>5322945428</v>
+      </c>
+      <c r="D313" t="s">
+        <v>688</v>
+      </c>
+      <c r="E313" t="s">
+        <v>689</v>
+      </c>
+      <c r="F313" t="s">
+        <v>9</v>
+      </c>
+      <c r="G313" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>6931315145</v>
+      </c>
+      <c r="D314" t="s">
+        <v>690</v>
+      </c>
+      <c r="E314" t="s">
+        <v>691</v>
+      </c>
+      <c r="F314" t="s">
+        <v>9</v>
+      </c>
+      <c r="G314" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>5612289766</v>
+      </c>
+      <c r="D315" t="s">
+        <v>692</v>
+      </c>
+      <c r="E315" t="s">
+        <v>693</v>
+      </c>
+      <c r="F315" t="s">
+        <v>9</v>
+      </c>
+      <c r="G315" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>1051236128</v>
+      </c>
+      <c r="D316" t="s">
+        <v>694</v>
+      </c>
+      <c r="E316" t="s">
+        <v>695</v>
+      </c>
+      <c r="F316" t="s">
+        <v>9</v>
+      </c>
+      <c r="G316" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>6055041792</v>
+      </c>
+      <c r="D317" t="s">
+        <v>696</v>
+      </c>
+      <c r="E317" t="s">
+        <v>697</v>
+      </c>
+      <c r="F317" t="s">
+        <v>9</v>
+      </c>
+      <c r="G317" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>6400358611</v>
+      </c>
+      <c r="D318" t="s">
+        <v>698</v>
+      </c>
+      <c r="E318" t="s">
+        <v>699</v>
+      </c>
+      <c r="F318" t="s">
+        <v>9</v>
+      </c>
+      <c r="G318" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>775735845</v>
+      </c>
+      <c r="D319" t="s">
+        <v>700</v>
+      </c>
+      <c r="E319" t="s">
+        <v>701</v>
+      </c>
+      <c r="F319" t="s">
+        <v>9</v>
+      </c>
+      <c r="G319" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>1078802824</v>
+      </c>
+      <c r="C320" t="s">
+        <v>702</v>
+      </c>
+      <c r="D320" t="s">
+        <v>703</v>
+      </c>
+      <c r="E320" t="s">
+        <v>704</v>
+      </c>
+      <c r="F320" t="s">
+        <v>9</v>
+      </c>
+      <c r="G320" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>6855385460</v>
+      </c>
+      <c r="D321" t="s">
+        <v>705</v>
+      </c>
+      <c r="E321" t="s">
+        <v>706</v>
+      </c>
+      <c r="F321" t="s">
+        <v>9</v>
+      </c>
+      <c r="G321" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>1047228938</v>
+      </c>
+      <c r="D322" t="s">
+        <v>707</v>
+      </c>
+      <c r="E322" t="s">
+        <v>708</v>
+      </c>
+      <c r="F322" t="s">
+        <v>9</v>
+      </c>
+      <c r="G322" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>1064978020</v>
+      </c>
+      <c r="D323" t="s">
+        <v>709</v>
+      </c>
+      <c r="E323" t="s">
+        <v>710</v>
+      </c>
+      <c r="F323" t="s">
+        <v>9</v>
+      </c>
+      <c r="G323" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>6975851984</v>
+      </c>
+      <c r="D324" t="s">
+        <v>711</v>
+      </c>
+      <c r="E324" t="s">
+        <v>712</v>
+      </c>
+      <c r="F324" t="s">
+        <v>9</v>
+      </c>
+      <c r="G324" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>1047010372</v>
+      </c>
+      <c r="C325" t="s">
+        <v>713</v>
+      </c>
+      <c r="D325" t="s">
+        <v>714</v>
+      </c>
+      <c r="E325" t="s">
+        <v>715</v>
+      </c>
+      <c r="F325" t="s">
+        <v>9</v>
+      </c>
+      <c r="G325" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>970905961</v>
+      </c>
+      <c r="D326" t="s">
+        <v>716</v>
+      </c>
+      <c r="E326" t="s">
+        <v>717</v>
+      </c>
+      <c r="F326" t="s">
+        <v>9</v>
+      </c>
+      <c r="G326" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>5090218410</v>
+      </c>
+      <c r="C327" t="s">
+        <v>718</v>
+      </c>
+      <c r="D327" t="s">
+        <v>719</v>
+      </c>
+      <c r="E327" t="s">
+        <v>720</v>
+      </c>
+      <c r="F327" t="s">
+        <v>9</v>
+      </c>
+      <c r="G327" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>5732141513</v>
+      </c>
+      <c r="D328" t="s">
+        <v>721</v>
+      </c>
+      <c r="E328" t="s">
+        <v>722</v>
+      </c>
+      <c r="F328" t="s">
+        <v>9</v>
+      </c>
+      <c r="G328" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>7707634979</v>
+      </c>
+      <c r="D329" t="s">
+        <v>723</v>
+      </c>
+      <c r="E329" t="s">
+        <v>724</v>
+      </c>
+      <c r="F329" t="s">
+        <v>9</v>
+      </c>
+      <c r="G329" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>1059975386</v>
+      </c>
+      <c r="D330" t="s">
+        <v>725</v>
+      </c>
+      <c r="E330" t="s">
+        <v>726</v>
+      </c>
+      <c r="F330" t="s">
+        <v>9</v>
+      </c>
+      <c r="G330" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>1640477183</v>
+      </c>
+      <c r="D331" t="s">
+        <v>727</v>
+      </c>
+      <c r="E331" t="s">
+        <v>728</v>
+      </c>
+      <c r="F331" t="s">
+        <v>9</v>
+      </c>
+      <c r="G331" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>5504296285</v>
+      </c>
+      <c r="D332" t="s">
+        <v>729</v>
+      </c>
+      <c r="E332" t="s">
+        <v>730</v>
+      </c>
+      <c r="F332" t="s">
+        <v>9</v>
+      </c>
+      <c r="G332" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>5949457585</v>
+      </c>
+      <c r="D333" t="s">
+        <v>731</v>
+      </c>
+      <c r="E333" t="s">
+        <v>732</v>
+      </c>
+      <c r="F333" t="s">
+        <v>9</v>
+      </c>
+      <c r="G333" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>5626809914</v>
+      </c>
+      <c r="C334" t="s">
+        <v>733</v>
+      </c>
+      <c r="D334" t="s">
+        <v>734</v>
+      </c>
+      <c r="E334" t="s">
+        <v>735</v>
+      </c>
+      <c r="F334" t="s">
+        <v>9</v>
+      </c>
+      <c r="G334" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>554067078</v>
+      </c>
+      <c r="C335" t="s">
+        <v>736</v>
+      </c>
+      <c r="D335" t="s">
+        <v>737</v>
+      </c>
+      <c r="E335" t="s">
+        <v>738</v>
+      </c>
+      <c r="F335" t="s">
+        <v>9</v>
+      </c>
+      <c r="G335" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>6521818633</v>
+      </c>
+      <c r="D336" t="s">
+        <v>739</v>
+      </c>
+      <c r="E336" t="s">
+        <v>740</v>
+      </c>
+      <c r="F336" t="s">
+        <v>9</v>
+      </c>
+      <c r="G336" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>2044331447</v>
+      </c>
+      <c r="C337" t="s">
+        <v>741</v>
+      </c>
+      <c r="D337" t="s">
+        <v>742</v>
+      </c>
+      <c r="E337" t="s">
+        <v>743</v>
+      </c>
+      <c r="F337" t="s">
+        <v>9</v>
+      </c>
+      <c r="G337" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>1336869357</v>
+      </c>
+      <c r="C338" t="s">
+        <v>744</v>
+      </c>
+      <c r="D338" t="s">
+        <v>745</v>
+      </c>
+      <c r="E338" t="s">
+        <v>746</v>
+      </c>
+      <c r="F338" t="s">
+        <v>9</v>
+      </c>
+      <c r="G338" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>1587230520</v>
+      </c>
+      <c r="D339" t="s">
+        <v>747</v>
+      </c>
+      <c r="E339" t="s">
+        <v>748</v>
+      </c>
+      <c r="F339" t="s">
+        <v>9</v>
+      </c>
+      <c r="G339" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>763183437</v>
+      </c>
+      <c r="D340" t="s">
+        <v>749</v>
+      </c>
+      <c r="E340" t="s">
+        <v>750</v>
+      </c>
+      <c r="F340" t="s">
+        <v>9</v>
+      </c>
+      <c r="G340" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>5269636719</v>
+      </c>
+      <c r="D341" t="s">
+        <v>751</v>
+      </c>
+      <c r="E341" t="s">
+        <v>752</v>
+      </c>
+      <c r="F341" t="s">
+        <v>9</v>
+      </c>
+      <c r="G341" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>5618026758</v>
+      </c>
+      <c r="C342" t="s">
+        <v>753</v>
+      </c>
+      <c r="D342" t="s">
+        <v>754</v>
+      </c>
+      <c r="E342" t="s">
+        <v>755</v>
+      </c>
+      <c r="F342" t="s">
+        <v>9</v>
+      </c>
+      <c r="G342" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>1323113949</v>
+      </c>
+      <c r="D343" t="s">
+        <v>756</v>
+      </c>
+      <c r="E343" t="s">
+        <v>757</v>
+      </c>
+      <c r="F343" t="s">
+        <v>9</v>
+      </c>
+      <c r="G343" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>1102538798</v>
+      </c>
+      <c r="D344" t="s">
+        <v>758</v>
+      </c>
+      <c r="E344" t="s">
+        <v>759</v>
+      </c>
+      <c r="F344" t="s">
+        <v>9</v>
+      </c>
+      <c r="G344" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>519243896</v>
+      </c>
+      <c r="D345" t="s">
+        <v>760</v>
+      </c>
+      <c r="E345" t="s">
+        <v>761</v>
+      </c>
+      <c r="F345" t="s">
+        <v>9</v>
+      </c>
+      <c r="G345" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>1112185991</v>
+      </c>
+      <c r="D346" t="s">
+        <v>762</v>
+      </c>
+      <c r="E346" t="s">
+        <v>763</v>
+      </c>
+      <c r="F346" t="s">
+        <v>9</v>
+      </c>
+      <c r="G346" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>5836068339</v>
+      </c>
+      <c r="C347" t="s">
+        <v>764</v>
+      </c>
+      <c r="D347" t="s">
+        <v>765</v>
+      </c>
+      <c r="E347" t="s">
+        <v>766</v>
+      </c>
+      <c r="F347" t="s">
+        <v>9</v>
+      </c>
+      <c r="G347" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>954894192</v>
+      </c>
+      <c r="D348" t="s">
+        <v>767</v>
+      </c>
+      <c r="E348" t="s">
+        <v>768</v>
+      </c>
+      <c r="F348" t="s">
+        <v>9</v>
+      </c>
+      <c r="G348" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>872480149</v>
+      </c>
+      <c r="C349" t="s">
+        <v>769</v>
+      </c>
+      <c r="D349" t="s">
+        <v>770</v>
+      </c>
+      <c r="E349" t="s">
+        <v>771</v>
+      </c>
+      <c r="F349" t="s">
+        <v>9</v>
+      </c>
+      <c r="G349" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>1061376157</v>
+      </c>
+      <c r="C350" t="s">
+        <v>772</v>
+      </c>
+      <c r="D350" t="s">
+        <v>773</v>
+      </c>
+      <c r="E350" t="s">
+        <v>774</v>
+      </c>
+      <c r="F350" t="s">
+        <v>9</v>
+      </c>
+      <c r="G350" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>1347566447</v>
+      </c>
+      <c r="D351" t="s">
+        <v>775</v>
+      </c>
+      <c r="E351" t="s">
+        <v>776</v>
+      </c>
+      <c r="F351" t="s">
+        <v>9</v>
+      </c>
+      <c r="G351" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>938516533</v>
+      </c>
+      <c r="D352" t="s">
+        <v>777</v>
+      </c>
+      <c r="E352" t="s">
+        <v>778</v>
+      </c>
+      <c r="F352" t="s">
+        <v>9</v>
+      </c>
+      <c r="G352" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>895671463</v>
+      </c>
+      <c r="D353" t="s">
+        <v>779</v>
+      </c>
+      <c r="E353" t="s">
+        <v>780</v>
+      </c>
+      <c r="F353" t="s">
+        <v>9</v>
+      </c>
+      <c r="G353" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>1005656477</v>
+      </c>
+      <c r="D354" t="s">
+        <v>781</v>
+      </c>
+      <c r="E354" t="s">
+        <v>782</v>
+      </c>
+      <c r="F354" t="s">
+        <v>9</v>
+      </c>
+      <c r="G354" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>1929985470</v>
+      </c>
+      <c r="C355" t="s">
+        <v>783</v>
+      </c>
+      <c r="D355" t="s">
+        <v>784</v>
+      </c>
+      <c r="E355" t="s">
+        <v>785</v>
+      </c>
+      <c r="F355" t="s">
+        <v>9</v>
+      </c>
+      <c r="G355" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>711467298</v>
+      </c>
+      <c r="D356" t="s">
+        <v>786</v>
+      </c>
+      <c r="E356" t="s">
+        <v>787</v>
+      </c>
+      <c r="F356" t="s">
+        <v>9</v>
+      </c>
+      <c r="G356" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>2124028643</v>
+      </c>
+      <c r="D357" t="s">
+        <v>788</v>
+      </c>
+      <c r="E357" t="s">
+        <v>789</v>
+      </c>
+      <c r="F357" t="s">
+        <v>9</v>
+      </c>
+      <c r="G357" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
